--- a/data/hotels_by_city/Dallas/Dallas_shard_689.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_689.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="612">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1774 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r570382006-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>56538</t>
+  </si>
+  <si>
+    <t>2543181</t>
+  </si>
+  <si>
+    <t>570382006</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. The front desk receptionists are very friendly and willing to drive you out within 5 miles radius which was very helpful. The only issue I had was initial Internet access. If you want to stay at this hotel and be able to go online and need heavy browsing on the Internet and download files, it will cost you extra $5.99 a day. Otherwise, you will enjoy good breakfast and spacious bedroom. Overall, I will not mind staying here, if I should go to Richardson again.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r555702063-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>555702063</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Nice place, good location</t>
+  </si>
+  <si>
+    <t>Nice clean hotel.  We were there for 2 nights.  For some reason, housekeeping never showed up to clean our room so we had to go get towels and toilet paper from the front desk.  The lady at the front desk was very pleasant.  The free breakfast was really good with a big variety of food.  We stayed on the side of the Turnpike and didn't even notice the noise.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r537749624-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>537749624</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Nice place with excellent staff</t>
+  </si>
+  <si>
+    <t>We stayed here for two different occasions within two weeks.  The hotel is right next to PGBT toll way and next to the hospital.  The room is spacious with a pull-out sofa bed.  There are two small coffee tables.  The work desk and chair with sliding glass panel credenza separate the sofa area from the bed area.  The TV can be viewed from the sofa or bed with its swivel base. There are mini fridge, microwave, ice bucket, and coffee maker by the entrance.  The bathroom and toilet are in two separate rooms with their own sinks.  Inside the closet are board, iron, and a chest with extra blankets.  The sink in the shower room has plenty of counter space with shelves underneath to store extra towels and hair dryer.  Wifi is free in the hotel and room.  Ethernet cable is provided on the desk.  There is a small bar in the lobby that opens from 5 to 10 PM.  There is a laundry room with two pairs of washer and dryer.  There is also a pool in the back.  The lobby also has a small convenience store.  Breakfast is good with plenty of choices including, oatmeal with toppings, bacon, eggs, harsh brown, toasts, bagels, muffins, scones, waffles, fruits, yogurts, milk, juices.  The hot items rotate daily.  If you are sensitive to noise, get the room on the front side of the hotel so you won’t hear the noise from...We stayed here for two different occasions within two weeks.  The hotel is right next to PGBT toll way and next to the hospital.  The room is spacious with a pull-out sofa bed.  There are two small coffee tables.  The work desk and chair with sliding glass panel credenza separate the sofa area from the bed area.  The TV can be viewed from the sofa or bed with its swivel base. There are mini fridge, microwave, ice bucket, and coffee maker by the entrance.  The bathroom and toilet are in two separate rooms with their own sinks.  Inside the closet are board, iron, and a chest with extra blankets.  The sink in the shower room has plenty of counter space with shelves underneath to store extra towels and hair dryer.  Wifi is free in the hotel and room.  Ethernet cable is provided on the desk.  There is a small bar in the lobby that opens from 5 to 10 PM.  There is a laundry room with two pairs of washer and dryer.  There is also a pool in the back.  The lobby also has a small convenience store.  Breakfast is good with plenty of choices including, oatmeal with toppings, bacon, eggs, harsh brown, toasts, bagels, muffins, scones, waffles, fruits, yogurts, milk, juices.  The hot items rotate daily.  If you are sensitive to noise, get the room on the front side of the hotel so you won’t hear the noise from the freeway.  The staff is excellent.  We called to request extra comforter and cover.  Within minutes, they are delivered to our door by the manager.  It is a nice clean place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed here for two different occasions within two weeks.  The hotel is right next to PGBT toll way and next to the hospital.  The room is spacious with a pull-out sofa bed.  There are two small coffee tables.  The work desk and chair with sliding glass panel credenza separate the sofa area from the bed area.  The TV can be viewed from the sofa or bed with its swivel base. There are mini fridge, microwave, ice bucket, and coffee maker by the entrance.  The bathroom and toilet are in two separate rooms with their own sinks.  Inside the closet are board, iron, and a chest with extra blankets.  The sink in the shower room has plenty of counter space with shelves underneath to store extra towels and hair dryer.  Wifi is free in the hotel and room.  Ethernet cable is provided on the desk.  There is a small bar in the lobby that opens from 5 to 10 PM.  There is a laundry room with two pairs of washer and dryer.  There is also a pool in the back.  The lobby also has a small convenience store.  Breakfast is good with plenty of choices including, oatmeal with toppings, bacon, eggs, harsh brown, toasts, bagels, muffins, scones, waffles, fruits, yogurts, milk, juices.  The hot items rotate daily.  If you are sensitive to noise, get the room on the front side of the hotel so you won’t hear the noise from...We stayed here for two different occasions within two weeks.  The hotel is right next to PGBT toll way and next to the hospital.  The room is spacious with a pull-out sofa bed.  There are two small coffee tables.  The work desk and chair with sliding glass panel credenza separate the sofa area from the bed area.  The TV can be viewed from the sofa or bed with its swivel base. There are mini fridge, microwave, ice bucket, and coffee maker by the entrance.  The bathroom and toilet are in two separate rooms with their own sinks.  Inside the closet are board, iron, and a chest with extra blankets.  The sink in the shower room has plenty of counter space with shelves underneath to store extra towels and hair dryer.  Wifi is free in the hotel and room.  Ethernet cable is provided on the desk.  There is a small bar in the lobby that opens from 5 to 10 PM.  There is a laundry room with two pairs of washer and dryer.  There is also a pool in the back.  The lobby also has a small convenience store.  Breakfast is good with plenty of choices including, oatmeal with toppings, bacon, eggs, harsh brown, toasts, bagels, muffins, scones, waffles, fruits, yogurts, milk, juices.  The hot items rotate daily.  If you are sensitive to noise, get the room on the front side of the hotel so you won’t hear the noise from the freeway.  The staff is excellent.  We called to request extra comforter and cover.  Within minutes, they are delivered to our door by the manager.  It is a nice clean place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r497957780-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>497957780</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>It was ok..but nothing more</t>
+  </si>
+  <si>
+    <t>We spent 4 nights here on a business trip. As a location with proximity to business it was excellent - walkable but as a location for anywhere else it was a nightmare. You definitively need a car (you will have a long walk to get to anywhere) and on the basis that this has no restaurant this proves quite problematic if you don't have any vehicle. We arrived on a Sunday night and even the bar was closed. We'd spent a fortune on a taxi from the airport, we were tired and disorientated by the time shift and starving. All that was on offer was a list of takeout delivery joints - we gave up after 20 minutes trying to order and went to bed!!!. Breakfast was ok - waffles, pastries, cereals, and a limited hot plate (scambled eggs, turkey burgers, turkey bacon and potatoes) but it got boring after 4 days - I was craving a range of fresh fruit!! the rooms were ok with separate shower and loo and a big screen tv. There was also a separate desk and seating area behind a glass screen and there was a good coffee machine (although no fresh milk. There was an outside pool and a gym - I didn't use them,. The bar was fine and the barmen was a bit of a character - the rest of the staff were friendly enough (apart from the unfriendly breakfast monitors!!!)...We spent 4 nights here on a business trip. As a location with proximity to business it was excellent - walkable but as a location for anywhere else it was a nightmare. You definitively need a car (you will have a long walk to get to anywhere) and on the basis that this has no restaurant this proves quite problematic if you don't have any vehicle. We arrived on a Sunday night and even the bar was closed. We'd spent a fortune on a taxi from the airport, we were tired and disorientated by the time shift and starving. All that was on offer was a list of takeout delivery joints - we gave up after 20 minutes trying to order and went to bed!!!. Breakfast was ok - waffles, pastries, cereals, and a limited hot plate (scambled eggs, turkey burgers, turkey bacon and potatoes) but it got boring after 4 days - I was craving a range of fresh fruit!! the rooms were ok with separate shower and loo and a big screen tv. There was also a separate desk and seating area behind a glass screen and there was a good coffee machine (although no fresh milk. There was an outside pool and a gym - I didn't use them,. The bar was fine and the barmen was a bit of a character - the rest of the staff were friendly enough (apart from the unfriendly breakfast monitors!!!) but overall it was very corporate and the facilities were limited. The hotel backs onto the George Bush turnpike and it is loud. It is fine for what it is but I would prefer somewhere with more character and near something going on. by the way a Uber taxi cost us a lot less on the way back to the airportMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>We spent 4 nights here on a business trip. As a location with proximity to business it was excellent - walkable but as a location for anywhere else it was a nightmare. You definitively need a car (you will have a long walk to get to anywhere) and on the basis that this has no restaurant this proves quite problematic if you don't have any vehicle. We arrived on a Sunday night and even the bar was closed. We'd spent a fortune on a taxi from the airport, we were tired and disorientated by the time shift and starving. All that was on offer was a list of takeout delivery joints - we gave up after 20 minutes trying to order and went to bed!!!. Breakfast was ok - waffles, pastries, cereals, and a limited hot plate (scambled eggs, turkey burgers, turkey bacon and potatoes) but it got boring after 4 days - I was craving a range of fresh fruit!! the rooms were ok with separate shower and loo and a big screen tv. There was also a separate desk and seating area behind a glass screen and there was a good coffee machine (although no fresh milk. There was an outside pool and a gym - I didn't use them,. The bar was fine and the barmen was a bit of a character - the rest of the staff were friendly enough (apart from the unfriendly breakfast monitors!!!)...We spent 4 nights here on a business trip. As a location with proximity to business it was excellent - walkable but as a location for anywhere else it was a nightmare. You definitively need a car (you will have a long walk to get to anywhere) and on the basis that this has no restaurant this proves quite problematic if you don't have any vehicle. We arrived on a Sunday night and even the bar was closed. We'd spent a fortune on a taxi from the airport, we were tired and disorientated by the time shift and starving. All that was on offer was a list of takeout delivery joints - we gave up after 20 minutes trying to order and went to bed!!!. Breakfast was ok - waffles, pastries, cereals, and a limited hot plate (scambled eggs, turkey burgers, turkey bacon and potatoes) but it got boring after 4 days - I was craving a range of fresh fruit!! the rooms were ok with separate shower and loo and a big screen tv. There was also a separate desk and seating area behind a glass screen and there was a good coffee machine (although no fresh milk. There was an outside pool and a gym - I didn't use them,. The bar was fine and the barmen was a bit of a character - the rest of the staff were friendly enough (apart from the unfriendly breakfast monitors!!!) but overall it was very corporate and the facilities were limited. The hotel backs onto the George Bush turnpike and it is loud. It is fine for what it is but I would prefer somewhere with more character and near something going on. by the way a Uber taxi cost us a lot less on the way back to the airportMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r497544816-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>497544816</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Friendly and comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here recently for two nights. We were warmly greeted offered any help they could. After a long day traveling it was nice to be welcomed. Rooms were clean, modern and comfortable. Make sure you ask for a room in front as the rooms in back are right against the Thruway. The included breakfast buffet had a good offering of fruit, cereal and eggs with sausage or bacon.  All was warm and plentiful. That's all I could ask for. We asked for a steak restaurant recommendation.  They told us two places.  We chose the wrong one. in the evening they have a bar and Billie the bartender was gregarious and talkative as a good bartender should be. Just a basic business hotel but comfortable and welcoming. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Stayed here recently for two nights. We were warmly greeted offered any help they could. After a long day traveling it was nice to be welcomed. Rooms were clean, modern and comfortable. Make sure you ask for a room in front as the rooms in back are right against the Thruway. The included breakfast buffet had a good offering of fruit, cereal and eggs with sausage or bacon.  All was warm and plentiful. That's all I could ask for. We asked for a steak restaurant recommendation.  They told us two places.  We chose the wrong one. in the evening they have a bar and Billie the bartender was gregarious and talkative as a good bartender should be. Just a basic business hotel but comfortable and welcoming. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r493732505-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>493732505</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>A stop on our way to the beach</t>
+  </si>
+  <si>
+    <t>This hotel was awesome.  The front desk staff were polite and helpful and had smiles on their faces.  The room was clean and large enough for 3 adults without climbing over each other.  The toilet was separate from the shower which is genius!  The breakfast was really good.  It had both hot and cold food and tasted really good.   I was very impressed and if Im put this way again, I would definitley stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r484516882-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>484516882</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great price for over night </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We needed a room for a night and didn't want to break the bank or stay somewhere unsafe. This hotel offered a great room and rate plus breakfast and an excellent outdoor patio area. The interior of the rooms and the room designs were trendy and updated, it was a great experience. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r469390624-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>469390624</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Wedding Celebration</t>
+  </si>
+  <si>
+    <t>As a seasoned hotelier of over 28 years this has been THE BEST EVER vacation that my family and I have had hands down.  I am always THAT guest that will find something wrong in a room - we had 3 rooms and they were ALL perfect. The Team Members at this property from pre-arrival Randy G. Front Office Manager, Front Desk to Housekeeping, the Breakfast Team and to The BEST Bartender were ALL Super Awesome.Pamela was able to get our rooms on the same floor for an early arrival - she always had great advice on where to go and what to do. Especially for this mother of the bride that didn't have a dress (you saved me Pamela). Kalika was also AWESOME, exceptionally helpful and also gave great advice and directions - always with a smile. I think its Robin (forgive me) she worked some crazy shifts but was always smiling, engaging and super friendly.This entire Team was engaging, helpful and genuinely willing to help expecting nothing in return except to see you smile. I say thank you, thank you and thank you all again.Can't wait for our next trip to Dallas we will be back!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>As a seasoned hotelier of over 28 years this has been THE BEST EVER vacation that my family and I have had hands down.  I am always THAT guest that will find something wrong in a room - we had 3 rooms and they were ALL perfect. The Team Members at this property from pre-arrival Randy G. Front Office Manager, Front Desk to Housekeeping, the Breakfast Team and to The BEST Bartender were ALL Super Awesome.Pamela was able to get our rooms on the same floor for an early arrival - she always had great advice on where to go and what to do. Especially for this mother of the bride that didn't have a dress (you saved me Pamela). Kalika was also AWESOME, exceptionally helpful and also gave great advice and directions - always with a smile. I think its Robin (forgive me) she worked some crazy shifts but was always smiling, engaging and super friendly.This entire Team was engaging, helpful and genuinely willing to help expecting nothing in return except to see you smile. I say thank you, thank you and thank you all again.Can't wait for our next trip to Dallas we will be back!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r466960016-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>466960016</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Newer Hotel!</t>
+  </si>
+  <si>
+    <t>Top notch Marriott property. Right beside the Methodist Hospital and easy access to the freeways. Plenty of food and shopping less than 5 minutes. Had a great experience with maintenance and it was because of something we did to the toilet. Came up right away. I didn't see valet parking available but all of the parking lot is near the front door, with a grand overhang which was appreciated since it rained 3 of the 5 days we were there. Excellent breakfast. Unbelievably clean and tasty. My teenage son loved the biscuits and gravy. I loved the gym, up-to-date equipment.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Top notch Marriott property. Right beside the Methodist Hospital and easy access to the freeways. Plenty of food and shopping less than 5 minutes. Had a great experience with maintenance and it was because of something we did to the toilet. Came up right away. I didn't see valet parking available but all of the parking lot is near the front door, with a grand overhang which was appreciated since it rained 3 of the 5 days we were there. Excellent breakfast. Unbelievably clean and tasty. My teenage son loved the biscuits and gravy. I loved the gym, up-to-date equipment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r457357724-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>457357724</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Clean, Friendly and Modern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed two nights at SH Suites during our daughter's volleyball tournament in Plano this weekend.  Great property... large rooms... artsy and modern... very comfortable for 2 adults and two teen girls. (I.e. Plenty of mirrors! Ha!) Nice breakfast each morning... well-stocked with an ample assortment of hot and cold items.  Friendly staff and impeccably clean. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r451123600-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>451123600</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Good room, poor location</t>
+  </si>
+  <si>
+    <t>The rooms are nice and clean, and even smells good. The service is good. The staff are really friendly. This is one of the best hotels I've been at for this price. It would be better if there's a restaurant nearby that I could just walk there.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r449268299-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>449268299</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Stay Here!</t>
+  </si>
+  <si>
+    <t>Great hotel! Clean, quiet, great breakfast, comfortable beds. Location makes for easy access around the area. All of this for a great value!!! I will stay here every time I'm in town!!!!! If you are looking for a hotel in the Richardson area-look no further!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r441224462-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>441224462</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Confortable Stay and Excellent Service</t>
+  </si>
+  <si>
+    <t>This hotel looks like its a rather new build, rooms are very comfortable and large.  A large television centrally situated to accommodate the sleeping area and the sitting area.  The Bed room is separated in 2 locations, one for the shower and sink and the second with the toilet and small sink.  There is a small bar area with microwave, sink and mini refrigerator.  The staff located at the front desk was very helpful and always greeting people as they leave and enter the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r440773088-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>440773088</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Incompetence</t>
+  </si>
+  <si>
+    <t>I stayed at this Springville Suites... Very nice rooms and friendly staff.  My issues with this hotel happened after I flew back home to find my room had been billed to my "incidentals" card not the companies card who was putting me up.  AMX, who paid for the hotel immediately called the hotel and resolved the issue, or so I thought.  Over a month after my stay I see a rogue charge once again on my "incidentals" credit card.  I've now left two phone messages with the General Manager with no call back.  I'm extremely frustrated with the lack of response.  In talking with my contact at AMX, this is not the first issue they have had with this hotel.  If you are a B2B customer... my advice, steer clear!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this Springville Suites... Very nice rooms and friendly staff.  My issues with this hotel happened after I flew back home to find my room had been billed to my "incidentals" card not the companies card who was putting me up.  AMX, who paid for the hotel immediately called the hotel and resolved the issue, or so I thought.  Over a month after my stay I see a rogue charge once again on my "incidentals" credit card.  I've now left two phone messages with the General Manager with no call back.  I'm extremely frustrated with the lack of response.  In talking with my contact at AMX, this is not the first issue they have had with this hotel.  If you are a B2B customer... my advice, steer clear!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r430803067-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>430803067</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Thank you so much</t>
+  </si>
+  <si>
+    <t>I travel to Dallas at least twice a month, and I love it here. Lindsey, Amanda, Eda, Pam, actually everyone there is amazing. Very clean, very friendly. Thank you for making it a little easier to be away from my family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r428482185-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>428482185</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Nice stay but kids at the bar</t>
+  </si>
+  <si>
+    <t>I'm come to the hotel once a month. To come vist my Family. Staff is great, the young lady who checked us in remembered my name wow that made me feel great. The only thing that I didn't like this stay is that I seen a little girl behind the bar. When I ask who she was they told me the bartenders daughter. I never knew that a child could be behind a bar while it's open. I'm still in shock about this one. But over all it was a great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>I'm come to the hotel once a month. To come vist my Family. Staff is great, the young lady who checked us in remembered my name wow that made me feel great. The only thing that I didn't like this stay is that I seen a little girl behind the bar. When I ask who she was they told me the bartenders daughter. I never knew that a child could be behind a bar while it's open. I'm still in shock about this one. But over all it was a great stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r428267024-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>428267024</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Superb!</t>
+  </si>
+  <si>
+    <t>My second time in Dallas and this hotel will be one of my favorites for future stays! The rooms are very clean and modern. The glass shower was hot and didn't disappoint after a long day at the State Fair. The hotel bar happy hour was an excellent touch! Amanda took care of my guest and I like family! Friendly atmosphere and the hotel smells devine! I will definitely be back!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My second time in Dallas and this hotel will be one of my favorites for future stays! The rooms are very clean and modern. The glass shower was hot and didn't disappoint after a long day at the State Fair. The hotel bar happy hour was an excellent touch! Amanda took care of my guest and I like family! Friendly atmosphere and the hotel smells devine! I will definitely be back!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r428118230-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>428118230</t>
+  </si>
+  <si>
+    <t>Excellent!!! Impressive all around.</t>
+  </si>
+  <si>
+    <t>Hard to think of another property that gives you a better bang for the buck.   Beautiful  decor throughout - from the outdoor seating lounge, lobby area and the rooms - all modern and inviting. A full service bar in this type of property is a surprise. A luggage cart is available for those who may be raveling with a lot of bags. The breakfast was excellent, constantly maintained and had a lot of variety. The room design is awesome.  Having the bathroom separated into two separate areas with bath.shower and a full vanity in one section and a small sink and toilet in the other (each separated from the bedroom with sliding doors) is brilliant and greatly helps families get ready more efficiently.  The separate, nicely sized sitting area with a spacious desk was appreciated as well. Very smart room design! Beds were super comfy and the property was quiet at night in spite of being located next to the expressway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hard to think of another property that gives you a better bang for the buck.   Beautiful  decor throughout - from the outdoor seating lounge, lobby area and the rooms - all modern and inviting. A full service bar in this type of property is a surprise. A luggage cart is available for those who may be raveling with a lot of bags. The breakfast was excellent, constantly maintained and had a lot of variety. The room design is awesome.  Having the bathroom separated into two separate areas with bath.shower and a full vanity in one section and a small sink and toilet in the other (each separated from the bedroom with sliding doors) is brilliant and greatly helps families get ready more efficiently.  The separate, nicely sized sitting area with a spacious desk was appreciated as well. Very smart room design! Beds were super comfy and the property was quiet at night in spite of being located next to the expressway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r406312873-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>406312873</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Posh Hotel</t>
+  </si>
+  <si>
+    <t>Great place to stay/ clean/ posh/ comfortable/ great suites/ wonderful hotel staff/ best breakfast of all chains visited so far...great job, Mariott!  Loved the suites, had a toilet room and a separate vanity and bath.  Great for 4 people.  Conveniently located.Easy access to George Bush Turnpike.  Great Beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay/ clean/ posh/ comfortable/ great suites/ wonderful hotel staff/ best breakfast of all chains visited so far...great job, Mariott!  Loved the suites, had a toilet room and a separate vanity and bath.  Great for 4 people.  Conveniently located.Easy access to George Bush Turnpike.  Great Beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r405285859-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>405285859</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>Just exactly what we needed for a weekend trip.  Arrived very late and Mary was on duty.  Could not have been more outgoing, understanding and empathetic.  For an exhausted traveller she was just exactly what was needed to end a lousy travel day on such a positive note.  The hotel room was clean and comfortable, breakfast area was well stocked and tasty.  All in all a very nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just exactly what we needed for a weekend trip.  Arrived very late and Mary was on duty.  Could not have been more outgoing, understanding and empathetic.  For an exhausted traveller she was just exactly what was needed to end a lousy travel day on such a positive note.  The hotel room was clean and comfortable, breakfast area was well stocked and tasty.  All in all a very nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r398813916-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>398813916</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Clean Comfortable Rooms</t>
+  </si>
+  <si>
+    <t>Rooms are clean and well laid out. The exercise room is not great but it is bright and serviceable for travelers. The hotel staff is friendly and warm. The location offers excellent access to Plano, Richardson, the Turnpike and NE Suburbs of Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Rooms are clean and well laid out. The exercise room is not great but it is bright and serviceable for travelers. The hotel staff is friendly and warm. The location offers excellent access to Plano, Richardson, the Turnpike and NE Suburbs of Dallas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r384092488-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>384092488</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>very nice, clean, breakfast fit for a king</t>
+  </si>
+  <si>
+    <t>the staff was most courteous and the lobby and dining areas very clean and bright. The breakfast is one of the BEST we have ever had in a hotel! (Nutella for croissants) The bed was fabulously comfortable and haven't slept that well even at home. It was plush and heavenly. I am usually difficult to please when I stay at hotels. The price is very affordable for the king's breakfast and comfort!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>the staff was most courteous and the lobby and dining areas very clean and bright. The breakfast is one of the BEST we have ever had in a hotel! (Nutella for croissants) The bed was fabulously comfortable and haven't slept that well even at home. It was plush and heavenly. I am usually difficult to please when I stay at hotels. The price is very affordable for the king's breakfast and comfort!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r377897632-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>377897632</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>A good place to stay with a few quirks</t>
+  </si>
+  <si>
+    <t>Chose this hotel for a recent weekend trip due to its suburban location and low rates for suites.  The hotel has a very impressive lobby area; very contemporary and welcoming.  Overall the hotel was clean and very nicely appointed.  The suite (2 queen bed) was spacious and well decorated.   FYI - The decor is NOT toddler friendly!  Put up the breakables before they run a muck.  Overall I would recommend this hotel but, there were a few quirks that you should be aware of.  1.  The fold out bed option is NOT pleasant.  The bed is VERY uncomfortable and there is no bedding provided in room.  When I called the front desk for bedding they said I had to come down and get it.  When I arrived the clerk I had spoken to moments before did not have it ready.  He went to the laundry area and brought me 6 flat sheets and 1 pillow.  He said that was all they had.  So, leave the fold out option for a roomie you don't like much.  2.  The toilet room lock in our room didn't work.  It was improperly installed so there was no way it could ever have functioned.  The doors on the toilet and bath rooms are sliding doors with no latch so having to hold the door shut was inconvenient.  3.  They are stingy with the towels.  There were only two towels in our room when we arrived....Chose this hotel for a recent weekend trip due to its suburban location and low rates for suites.  The hotel has a very impressive lobby area; very contemporary and welcoming.  Overall the hotel was clean and very nicely appointed.  The suite (2 queen bed) was spacious and well decorated.   FYI - The decor is NOT toddler friendly!  Put up the breakables before they run a muck.  Overall I would recommend this hotel but, there were a few quirks that you should be aware of.  1.  The fold out bed option is NOT pleasant.  The bed is VERY uncomfortable and there is no bedding provided in room.  When I called the front desk for bedding they said I had to come down and get it.  When I arrived the clerk I had spoken to moments before did not have it ready.  He went to the laundry area and brought me 6 flat sheets and 1 pillow.  He said that was all they had.  So, leave the fold out option for a roomie you don't like much.  2.  The toilet room lock in our room didn't work.  It was improperly installed so there was no way it could ever have functioned.  The doors on the toilet and bath rooms are sliding doors with no latch so having to hold the door shut was inconvenient.  3.  They are stingy with the towels.  There were only two towels in our room when we arrived.  We called for more and were told to come to the front desk again.  Being on the third floor this was an annoying request.  They seemed reluctant to give us very many even tho we were 3 adults traveling with children who of course wanted to go swimming.  We finally begged enough out of them so that the parents had to share with the kids but at least there was one per adult.  3.  Speaking of the pool...that is another thing.  There was only one towel on the cart by the pool and it was like a  hand towel.  It barely covered my two year old.  The pool itself was fairly well maintained and clean.  The "whirlpool/hot tub" was a joke.  Watch that first step, its a doozy!  It is not meant for those of us with short legs.  It also didn't work.  It was slightly warmer than the pool but the jets did not function.  Now let me state again that overall I was pretty happy with my hotel experience.  At no point did it appear dirty or unsafe.  The staff were, for the most part, very friendly.  Although this was a holiday weekend they did not seem very busy.  The neighborhood is nice and quiet, with the exception of the highway traffic noise nearby.  There is also a gas station nearby for easy refueling.  Give this place a shot if you are in the area.  it may have its quirks but it still rates higher than most other "big city" motels.  FYI - You get the best rates thru the Marriott website.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Chose this hotel for a recent weekend trip due to its suburban location and low rates for suites.  The hotel has a very impressive lobby area; very contemporary and welcoming.  Overall the hotel was clean and very nicely appointed.  The suite (2 queen bed) was spacious and well decorated.   FYI - The decor is NOT toddler friendly!  Put up the breakables before they run a muck.  Overall I would recommend this hotel but, there were a few quirks that you should be aware of.  1.  The fold out bed option is NOT pleasant.  The bed is VERY uncomfortable and there is no bedding provided in room.  When I called the front desk for bedding they said I had to come down and get it.  When I arrived the clerk I had spoken to moments before did not have it ready.  He went to the laundry area and brought me 6 flat sheets and 1 pillow.  He said that was all they had.  So, leave the fold out option for a roomie you don't like much.  2.  The toilet room lock in our room didn't work.  It was improperly installed so there was no way it could ever have functioned.  The doors on the toilet and bath rooms are sliding doors with no latch so having to hold the door shut was inconvenient.  3.  They are stingy with the towels.  There were only two towels in our room when we arrived....Chose this hotel for a recent weekend trip due to its suburban location and low rates for suites.  The hotel has a very impressive lobby area; very contemporary and welcoming.  Overall the hotel was clean and very nicely appointed.  The suite (2 queen bed) was spacious and well decorated.   FYI - The decor is NOT toddler friendly!  Put up the breakables before they run a muck.  Overall I would recommend this hotel but, there were a few quirks that you should be aware of.  1.  The fold out bed option is NOT pleasant.  The bed is VERY uncomfortable and there is no bedding provided in room.  When I called the front desk for bedding they said I had to come down and get it.  When I arrived the clerk I had spoken to moments before did not have it ready.  He went to the laundry area and brought me 6 flat sheets and 1 pillow.  He said that was all they had.  So, leave the fold out option for a roomie you don't like much.  2.  The toilet room lock in our room didn't work.  It was improperly installed so there was no way it could ever have functioned.  The doors on the toilet and bath rooms are sliding doors with no latch so having to hold the door shut was inconvenient.  3.  They are stingy with the towels.  There were only two towels in our room when we arrived.  We called for more and were told to come to the front desk again.  Being on the third floor this was an annoying request.  They seemed reluctant to give us very many even tho we were 3 adults traveling with children who of course wanted to go swimming.  We finally begged enough out of them so that the parents had to share with the kids but at least there was one per adult.  3.  Speaking of the pool...that is another thing.  There was only one towel on the cart by the pool and it was like a  hand towel.  It barely covered my two year old.  The pool itself was fairly well maintained and clean.  The "whirlpool/hot tub" was a joke.  Watch that first step, its a doozy!  It is not meant for those of us with short legs.  It also didn't work.  It was slightly warmer than the pool but the jets did not function.  Now let me state again that overall I was pretty happy with my hotel experience.  At no point did it appear dirty or unsafe.  The staff were, for the most part, very friendly.  Although this was a holiday weekend they did not seem very busy.  The neighborhood is nice and quiet, with the exception of the highway traffic noise nearby.  There is also a gas station nearby for easy refueling.  Give this place a shot if you are in the area.  it may have its quirks but it still rates higher than most other "big city" motels.  FYI - You get the best rates thru the Marriott website.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r369535823-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>369535823</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>The onsite staff was helpful, however, as a training coordinator it was difficult to get responses via email. And they completely ignored any questions about rewards, wouldn't even acknowledge the repeated questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>The onsite staff was helpful, however, as a training coordinator it was difficult to get responses via email. And they completely ignored any questions about rewards, wouldn't even acknowledge the repeated questions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r358423468-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>358423468</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Room, hotel and staff were all wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was very nice and staff were very professional and eager to help with anything we needed. I had left my diamond necklace by accident. I called the hotel and the lady at the desk called housekeeping and thank goodness they had it still. Of course I thanked them over and over because the necklace was a present from my husband for our 20th anniversary. I am so grateful there are still honest people in the world. Would stay here again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r344655050-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>344655050</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and quiet. The staff is wonderful too! Me and my family stayed here while my dad had surgery at the hospital down the street. The room was nice and big and wonderfully decorated.  Beds were comfy. I didn't like the pillows but that is with any hotel. Breakfast in the morning is good.  Never heard a sound. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and quiet. The staff is wonderful too! Me and my family stayed here while my dad had surgery at the hospital down the street. The room was nice and big and wonderfully decorated.  Beds were comfy. I didn't like the pillows but that is with any hotel. Breakfast in the morning is good.  Never heard a sound. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r344645292-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>344645292</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>We were traveling with our daughter and 2 children and needed a motel with adjoining rooms.   We picked this place for that reason.   We were so happy with the set up.  They gave us a room at the end of the hall which was nice with 2 kids.   The breakfast is a typical one for Marriott's.   The beds are very comfortable and the place is clean.   We felt they were a little stingy with towels and for some reason we didn't get full rolls of bath tissue.   Our biggest disappointment was how far it was to go for eating places.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were traveling with our daughter and 2 children and needed a motel with adjoining rooms.   We picked this place for that reason.   We were so happy with the set up.  They gave us a room at the end of the hall which was nice with 2 kids.   The breakfast is a typical one for Marriott's.   The beds are very comfortable and the place is clean.   We felt they were a little stingy with towels and for some reason we didn't get full rolls of bath tissue.   Our biggest disappointment was how far it was to go for eating places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r331067468-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>331067468</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>Good value for money. The staff is young and always willing to help. The rooms are big, well equipped and comfortable. Gym is basic but its well maintained and all machines work.No dinner is served but you can enjoy the typical Texas food a few miles away.Good location for many tech companies in the surroundings.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Good value for money. The staff is young and always willing to help. The rooms are big, well equipped and comfortable. Gym is basic but its well maintained and all machines work.No dinner is served but you can enjoy the typical Texas food a few miles away.Good location for many tech companies in the surroundings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r326524790-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>326524790</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel for the money, hot breakfast is above average</t>
+  </si>
+  <si>
+    <t>Pretty nice hotel for the money. They have a small bar that serves basic liquor and beer in the evening. This is a nice add if you want a couple quick drinks before going to bed.Hot breakfast is above average for a free breakfast. Usually has some scrambled eggs and various meats/potato combinations.Better than what you would get at a Fairfield.They have an outdoor patio with gas fire which can be fun to hang out in on cooler fall nights.Only thing that irritates me is you have to stick your room key in a slot in the room for the power to work. This makes charging devices and keeping the room cool while you are out difficult. Saves power for the hotel, and in theory the environment, but it is a bit of a hassle especially when you lock yourself out of the room thinking you left your key in your wallet when it is really in the wall power slot.Overall I would recommend the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Lori J, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded November 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2015</t>
+  </si>
+  <si>
+    <t>Pretty nice hotel for the money. They have a small bar that serves basic liquor and beer in the evening. This is a nice add if you want a couple quick drinks before going to bed.Hot breakfast is above average for a free breakfast. Usually has some scrambled eggs and various meats/potato combinations.Better than what you would get at a Fairfield.They have an outdoor patio with gas fire which can be fun to hang out in on cooler fall nights.Only thing that irritates me is you have to stick your room key in a slot in the room for the power to work. This makes charging devices and keeping the room cool while you are out difficult. Saves power for the hotel, and in theory the environment, but it is a bit of a hassle especially when you lock yourself out of the room thinking you left your key in your wallet when it is really in the wall power slot.Overall I would recommend the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r326134035-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>326134035</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Business Friendly and Convenient Location</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and layed out with a work area and couch. Separate shower and bathroom would be nice for couples traveling but didn't matter much for me. Plenty of outlets to charge your electronics. Free internet and breakfast was nice. Only negative was a lack of restaurants in walking distance but there are plenty within a 5 minute drive. Small bar area and across the street access to some nice areas to go for a run. Refrigerator in the room is convenient. I'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are very clean and layed out with a work area and couch. Separate shower and bathroom would be nice for couples traveling but didn't matter much for me. Plenty of outlets to charge your electronics. Free internet and breakfast was nice. Only negative was a lack of restaurants in walking distance but there are plenty within a 5 minute drive. Small bar area and across the street access to some nice areas to go for a run. Refrigerator in the room is convenient. I'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r292810635-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>292810635</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Stay! </t>
+  </si>
+  <si>
+    <t>We were in town for a basketball tournament &amp; stayed with our 5 children for 4 nights. There were lots of other basketball players at the hotel too &amp; the staff and hotel were very accommodating to everyone! Zalen checked us in &amp; was super friendly &amp; professional! I loved the set up of the Queen suite which gave us tons of room &amp; comfortably slept 4-5 guests. Breakfast was good and there was lots of selections. It would've been nice to have extended the breakfast until 10am just because there were lots of guests in the breakfast area and it was hard to be done eating by 9am. Everything seemed very fresh and I loved the healthy options!Our kids definitely loved the outdoor pool! Overall a great value and a clean, modern hotel in a nice area of Plano/Richardson. We hope to be back again next year! Only 2 complaints: The maids came around really early in the morning and walked into my room in without knocking! This was at 9:30am &amp; really startled me. The second concern was the trash was overflowing from the outside trash can at the front of the hotel and it made a really bad first impression as we pulled up. It was overflowing again as we checked out on Sunday afternoon. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>We were in town for a basketball tournament &amp; stayed with our 5 children for 4 nights. There were lots of other basketball players at the hotel too &amp; the staff and hotel were very accommodating to everyone! Zalen checked us in &amp; was super friendly &amp; professional! I loved the set up of the Queen suite which gave us tons of room &amp; comfortably slept 4-5 guests. Breakfast was good and there was lots of selections. It would've been nice to have extended the breakfast until 10am just because there were lots of guests in the breakfast area and it was hard to be done eating by 9am. Everything seemed very fresh and I loved the healthy options!Our kids definitely loved the outdoor pool! Overall a great value and a clean, modern hotel in a nice area of Plano/Richardson. We hope to be back again next year! Only 2 complaints: The maids came around really early in the morning and walked into my room in without knocking! This was at 9:30am &amp; really startled me. The second concern was the trash was overflowing from the outside trash can at the front of the hotel and it made a really bad first impression as we pulled up. It was overflowing again as we checked out on Sunday afternoon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r284504455-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>284504455</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Short visit but nice</t>
+  </si>
+  <si>
+    <t>Nice, clean, modern. Nice pool and lounge area right off George Bush. The staff was friendly. It was a very short stay but this is a place I would recommend to friends and family who may visit. The hotel appears to be new. They offer an area to purchase items and bar and restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Nice, clean, modern. Nice pool and lounge area right off George Bush. The staff was friendly. It was a very short stay but this is a place I would recommend to friends and family who may visit. The hotel appears to be new. They offer an area to purchase items and bar and restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r280499554-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>280499554</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel, Nice staff, bad breakfast</t>
+  </si>
+  <si>
+    <t>The staff here are outstanding, friendly and eager to please.  
+My room was large, very clean, and super Quiet!  I did have a room that faced away from the Highway.  In fact, it was so super quiet that I had trouble sleeping due to it being too quiet so I turned the TV on low for a little bit of noise.  It is hard to find a hotel room that is so very extremely quiet.  It was very quiet even though it was sold out for the night I was there.
+I read some reviews about the layout of the room so I wasn't totally surprised by my room's bathroom set up.  My room was large, it had a kitchenette area with frig &amp; micro.  There was a living room area with sofa and a desk area separating the living room from the bedroom.  It was nice, large and relaxing.  (see photos)
+However, the bathroom is divided into 2 rooms - both have sliding doors with frosted glass.  I tend to not like sliding doors in hotel rooms because they are not quiet when you need to close the door to use the bathroom in the middle of the night.  The fan turned on automatically with the light so there was no way of trying be quiet.  Both doors have frosted glass &amp; yes, it does light up the room at night when you go to the bathroom.  (I took...The staff here are outstanding, friendly and eager to please.  My room was large, very clean, and super Quiet!  I did have a room that faced away from the Highway.  In fact, it was so super quiet that I had trouble sleeping due to it being too quiet so I turned the TV on low for a little bit of noise.  It is hard to find a hotel room that is so very extremely quiet.  It was very quiet even though it was sold out for the night I was there.I read some reviews about the layout of the room so I wasn't totally surprised by my room's bathroom set up.  My room was large, it had a kitchenette area with frig &amp; micro.  There was a living room area with sofa and a desk area separating the living room from the bedroom.  It was nice, large and relaxing.  (see photos)However, the bathroom is divided into 2 rooms - both have sliding doors with frosted glass.  I tend to not like sliding doors in hotel rooms because they are not quiet when you need to close the door to use the bathroom in the middle of the night.  The fan turned on automatically with the light so there was no way of trying be quiet.  Both doors have frosted glass &amp; yes, it does light up the room at night when you go to the bathroom.  (I took a photo to show how much light lit up the bed with both bathroom lights on)My photos show the lay out of the bathrooms.  Toilet &amp; sink in the door on right.  The door on left is shower (no tub) with a full sink area directly across from it - you can see this sink area reflecting off the closet door's full length mirror in this photo.  There is a light behind the circle mirror which is dim &amp; good to use at night but the toilet isn't in this bathroom.  I had no problems with my room at all.  The bathroom set up did not bother me but I could see how the bright lights through the frosted glass doors &amp; fan/light set up could disturb family members in your room when using the bathroom at night.I printed a map before hand and did not have any trouble getting to the hotel.  Even though it's address is E George Bush Turnpike - I wanted to avoid the tolls and took Campbell off Hwy 75 to just south of the hotel then Shiloh Rd north.  The main entrance is on SHILOH ROAD (not E George Bush Turnpike).  Campbell road was scenic but I took Renner road to Hwy 75 in the morning &amp; would recommend that route -  Renner &amp; Shiloh Road.The only thing I did not like about this hotel was the breakfast!!  The scrambled eggs were cold - yuck.  The pre-made oatmeal had so much extra water added to it - it was like soup with broth - terrible!  The breads were hard/stale.  They did have fresh bananas and yogurt.  All the other foods were disappointing (especially the oatmeal).Great hotel!  Nice Staff!  Bad breakfast.   Would I stay here again?  Absolutely!  Loved my very clean, large, quiet room.  And I do like bananas and yogurt - so at least I can eat some food at breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>The staff here are outstanding, friendly and eager to please.  
+My room was large, very clean, and super Quiet!  I did have a room that faced away from the Highway.  In fact, it was so super quiet that I had trouble sleeping due to it being too quiet so I turned the TV on low for a little bit of noise.  It is hard to find a hotel room that is so very extremely quiet.  It was very quiet even though it was sold out for the night I was there.
+I read some reviews about the layout of the room so I wasn't totally surprised by my room's bathroom set up.  My room was large, it had a kitchenette area with frig &amp; micro.  There was a living room area with sofa and a desk area separating the living room from the bedroom.  It was nice, large and relaxing.  (see photos)
+However, the bathroom is divided into 2 rooms - both have sliding doors with frosted glass.  I tend to not like sliding doors in hotel rooms because they are not quiet when you need to close the door to use the bathroom in the middle of the night.  The fan turned on automatically with the light so there was no way of trying be quiet.  Both doors have frosted glass &amp; yes, it does light up the room at night when you go to the bathroom.  (I took...The staff here are outstanding, friendly and eager to please.  My room was large, very clean, and super Quiet!  I did have a room that faced away from the Highway.  In fact, it was so super quiet that I had trouble sleeping due to it being too quiet so I turned the TV on low for a little bit of noise.  It is hard to find a hotel room that is so very extremely quiet.  It was very quiet even though it was sold out for the night I was there.I read some reviews about the layout of the room so I wasn't totally surprised by my room's bathroom set up.  My room was large, it had a kitchenette area with frig &amp; micro.  There was a living room area with sofa and a desk area separating the living room from the bedroom.  It was nice, large and relaxing.  (see photos)However, the bathroom is divided into 2 rooms - both have sliding doors with frosted glass.  I tend to not like sliding doors in hotel rooms because they are not quiet when you need to close the door to use the bathroom in the middle of the night.  The fan turned on automatically with the light so there was no way of trying be quiet.  Both doors have frosted glass &amp; yes, it does light up the room at night when you go to the bathroom.  (I took a photo to show how much light lit up the bed with both bathroom lights on)My photos show the lay out of the bathrooms.  Toilet &amp; sink in the door on right.  The door on left is shower (no tub) with a full sink area directly across from it - you can see this sink area reflecting off the closet door's full length mirror in this photo.  There is a light behind the circle mirror which is dim &amp; good to use at night but the toilet isn't in this bathroom.  I had no problems with my room at all.  The bathroom set up did not bother me but I could see how the bright lights through the frosted glass doors &amp; fan/light set up could disturb family members in your room when using the bathroom at night.I printed a map before hand and did not have any trouble getting to the hotel.  Even though it's address is E George Bush Turnpike - I wanted to avoid the tolls and took Campbell off Hwy 75 to just south of the hotel then Shiloh Rd north.  The main entrance is on SHILOH ROAD (not E George Bush Turnpike).  Campbell road was scenic but I took Renner road to Hwy 75 in the morning &amp; would recommend that route -  Renner &amp; Shiloh Road.The only thing I did not like about this hotel was the breakfast!!  The scrambled eggs were cold - yuck.  The pre-made oatmeal had so much extra water added to it - it was like soup with broth - terrible!  The breads were hard/stale.  They did have fresh bananas and yogurt.  All the other foods were disappointing (especially the oatmeal).Great hotel!  Nice Staff!  Bad breakfast.   Would I stay here again?  Absolutely!  Loved my very clean, large, quiet room.  And I do like bananas and yogurt - so at least I can eat some food at breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r276597639-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>276597639</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Unexpected Find with great benefits</t>
+  </si>
+  <si>
+    <t>The staff of this hotel were top notch and the property definitely exceeded expectations as well.  The room layout was fantastic with the toilet and a small sink being in a separate room from the bath/shower area which also contains a sink.  When traveling many times the bathroom becomes a time crunch issue.  This is not an issue in this hotel at all.  The public areas were clean and the breakfast was hot and offered a good selection of items.  The bed was comfortable and clean.  I have stayed in a few other SpringHill suite properties and I can say with confidence that this property outshines all the others no question.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded June 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2015</t>
+  </si>
+  <si>
+    <t>The staff of this hotel were top notch and the property definitely exceeded expectations as well.  The room layout was fantastic with the toilet and a small sink being in a separate room from the bath/shower area which also contains a sink.  When traveling many times the bathroom becomes a time crunch issue.  This is not an issue in this hotel at all.  The public areas were clean and the breakfast was hot and offered a good selection of items.  The bed was comfortable and clean.  I have stayed in a few other SpringHill suite properties and I can say with confidence that this property outshines all the others no question.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r272219217-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>272219217</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Love room layout</t>
+  </si>
+  <si>
+    <t>Love the room layout. There is a separate area with a door for the shower area and a separate area for the toilet. The breakfast was typical for a free hotel breakfast. The facility was clean, sleek and modern. This was our first Springhill Suite for us to stay in-it will definitely not be our last Springhill. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Love the room layout. There is a separate area with a door for the shower area and a separate area for the toilet. The breakfast was typical for a free hotel breakfast. The facility was clean, sleek and modern. This was our first Springhill Suite for us to stay in-it will definitely not be our last Springhill. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r268895501-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>268895501</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>We were in town for just a one night basketball tournament.  We were able to check in at 12 as soon as we got to Dallas, and even though they were in the middle of cleaning the front desk ladies asked the cleaning crew if they could go ahead and get two rooms clean so the kids could rest before their game. The room was very nice, it was different in that your electricity is controlled by inserting your room key in a box on the wall, and the shower and toilet were in separate rooms, which as a plus. I wish there was 2nd TV as the main one was in the living room area and if you were in the bed furthest away you couldn't see much. Breakfast was included, but it wasn't a big selection, sausage, oatmeal (with all the fixings) cereal, potatoes, bagels, toast, eggs, waffles and juice. I guess I miss the places were you can order other items.  Hotels that have cook-to-order kitchen.  They have a bar area open from 5-11 also for the adults. With a nice lounging area. The area was real nice, very quiet, but close the highway and other fast food and restaurants.  I definitely would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We were in town for just a one night basketball tournament.  We were able to check in at 12 as soon as we got to Dallas, and even though they were in the middle of cleaning the front desk ladies asked the cleaning crew if they could go ahead and get two rooms clean so the kids could rest before their game. The room was very nice, it was different in that your electricity is controlled by inserting your room key in a box on the wall, and the shower and toilet were in separate rooms, which as a plus. I wish there was 2nd TV as the main one was in the living room area and if you were in the bed furthest away you couldn't see much. Breakfast was included, but it wasn't a big selection, sausage, oatmeal (with all the fixings) cereal, potatoes, bagels, toast, eggs, waffles and juice. I guess I miss the places were you can order other items.  Hotels that have cook-to-order kitchen.  They have a bar area open from 5-11 also for the adults. With a nice lounging area. The area was real nice, very quiet, but close the highway and other fast food and restaurants.  I definitely would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r259228442-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>259228442</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Friendly: What More Could You Want?</t>
+  </si>
+  <si>
+    <t>Immaculate, airy, and welcoming are other appropriate descriptors. Affordably priced, too. Breakfast was pretty standard fare, but the service staff was very friendly and even offered to refill my juice! Never had that happen before. Very satisfying, indeed. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Immaculate, airy, and welcoming are other appropriate descriptors. Affordably priced, too. Breakfast was pretty standard fare, but the service staff was very friendly and even offered to refill my juice! Never had that happen before. Very satisfying, indeed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r258301998-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>258301998</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Everything from front desk staff to room was super nice. Breakfast was better than average fair - fruit not great but it was winter. The room is outstanding - fresh, clean, trendy. The front desk staff was great and the young bartender was friendly. Gym was ok - not great but served the purpose. I will definitely keep it on my list of hotels to go back to when in the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Everything from front desk staff to room was super nice. Breakfast was better than average fair - fruit not great but it was winter. The room is outstanding - fresh, clean, trendy. The front desk staff was great and the young bartender was friendly. Gym was ok - not great but served the purpose. I will definitely keep it on my list of hotels to go back to when in the Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r257771686-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>257771686</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>incredible breakfast - sooooo good</t>
+  </si>
+  <si>
+    <t>Spent 4 nights here, for a business trip in mid-February. The stay was very enjoyable. The bathrooms in the room was separated, the toilet in one room, the shower in the other.Pros: The breakfast was wonderful, the room was nice and large.Cons: The thermostat didn't seem to be working properly, I bumped it up to 78, and it didn't feel much warmer than when it was set to 68.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Spent 4 nights here, for a business trip in mid-February. The stay was very enjoyable. The bathrooms in the room was separated, the toilet in one room, the shower in the other.Pros: The breakfast was wonderful, the room was nice and large.Cons: The thermostat didn't seem to be working properly, I bumped it up to 78, and it didn't feel much warmer than when it was set to 68.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r250962778-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>250962778</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Hotel Staff Excellent!  Clean Rooms.</t>
+  </si>
+  <si>
+    <t>It would be hard to find any other hotel with such gracious, helpful and cheerful staff.  The rooms are large and clean with a contemporary flair.  There is a microwave and refrigerator.  Also, there is a nice sitting area and desk.  the Wifi worked well.  The breakfast served each AM was very good.  There is a small bar in the lobby that opens from 5:00 PM - 11:00 PM.  The lobby is very open and has plenty of seating.  There is also a convenient area supplied with everything from wine to batteries for your purchase.  The only reason(s) I didn't give 5 stars:  1) The lighting above the vanity is quite dim.  2)  The shower pressure is low.  3)  The toilet is located in the middle of the room and I shared the room with a co-worker, which I didn't know very well.  It was a bit uncomfortable.  The commode area has a tiny sink, which has a tendency to splash onto the ground.  My co-worker used this area to apply her makeup, etc.  A small, 3-tier shelf would've been very handy for her toiletries.  4) There are no places in walking proximity to dine.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>It would be hard to find any other hotel with such gracious, helpful and cheerful staff.  The rooms are large and clean with a contemporary flair.  There is a microwave and refrigerator.  Also, there is a nice sitting area and desk.  the Wifi worked well.  The breakfast served each AM was very good.  There is a small bar in the lobby that opens from 5:00 PM - 11:00 PM.  The lobby is very open and has plenty of seating.  There is also a convenient area supplied with everything from wine to batteries for your purchase.  The only reason(s) I didn't give 5 stars:  1) The lighting above the vanity is quite dim.  2)  The shower pressure is low.  3)  The toilet is located in the middle of the room and I shared the room with a co-worker, which I didn't know very well.  It was a bit uncomfortable.  The commode area has a tiny sink, which has a tendency to splash onto the ground.  My co-worker used this area to apply her makeup, etc.  A small, 3-tier shelf would've been very handy for her toiletries.  4) There are no places in walking proximity to dine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r249699936-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>249699936</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here for business.  Very clean and comfortable.  Room was spacious.  Refrig and microwave in room.  Desk work area was functional and can even see TV from that area.   Shower area is separate from toilet.   Could use a brighter light over sink in shower area to use mirror.  Light in the toilet room was bright but the sink there is so tiny as is the mirror, it's hard to use.   Enjoyed the up to date fitness room. All the equipment worked. There are free weight as well as a bench.  Dining and shopping close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for business.  Very clean and comfortable.  Room was spacious.  Refrig and microwave in room.  Desk work area was functional and can even see TV from that area.   Shower area is separate from toilet.   Could use a brighter light over sink in shower area to use mirror.  Light in the toilet room was bright but the sink there is so tiny as is the mirror, it's hard to use.   Enjoyed the up to date fitness room. All the equipment worked. There are free weight as well as a bench.  Dining and shopping close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r243783274-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>243783274</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Simply Great</t>
+  </si>
+  <si>
+    <t>Very nice modern hotel with many amenities I like. The separate toilet and shower is a simple arrangement but a well received layout for a room. The mattress was very comfortable. I had to check the maker and it was Beautyrest. Great selection with the fluffy pillows and furniture to relax. The whole hotel was climate control. Some hotels have cold hallways or lobbies but this hotel had the ideal temperatures thoughout.The housekeeping was awesome with their creative folding of the towels. I thought I was on a cruise ship. The only problem I experience was that their was a small leak coming from under the shower floor. I did notify the front desk and they will have maintenance to fix it. The breakfast area was roomy along with great healthy choices. They had an outdoor patio with a fireplace that was nice. I have to come back in the summer to enjoy the outside pool, it looked refreshing.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Very nice modern hotel with many amenities I like. The separate toilet and shower is a simple arrangement but a well received layout for a room. The mattress was very comfortable. I had to check the maker and it was Beautyrest. Great selection with the fluffy pillows and furniture to relax. The whole hotel was climate control. Some hotels have cold hallways or lobbies but this hotel had the ideal temperatures thoughout.The housekeeping was awesome with their creative folding of the towels. I thought I was on a cruise ship. The only problem I experience was that their was a small leak coming from under the shower floor. I did notify the front desk and they will have maintenance to fix it. The breakfast area was roomy along with great healthy choices. They had an outdoor patio with a fireplace that was nice. I have to come back in the summer to enjoy the outside pool, it looked refreshing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r238690992-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>238690992</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Good stay despite snafus</t>
+  </si>
+  <si>
+    <t>nice hotel and friendly staff and I liked that they had a small bar in the lobby too. The free breakfast was also first class. My complaints: no welcome gift as a Marriott Gold member - I was told it was for Platinum members only and more concerning is my wake up call never came. All that said I still like the hotel it's quiet room and the amenities. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>nice hotel and friendly staff and I liked that they had a small bar in the lobby too. The free breakfast was also first class. My complaints: no welcome gift as a Marriott Gold member - I was told it was for Platinum members only and more concerning is my wake up call never came. All that said I still like the hotel it's quiet room and the amenities. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r233855519-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>233855519</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Don't get in a hurry to check in and you'll be happy</t>
+  </si>
+  <si>
+    <t>Very clean rooms, comfy beds, good A/C, good sound-proofing, better breakfast than many....if the front desk staff could just step it up a bit, I would gave given this property 5 stars.  We checked in around 6:00 pm. There was only one customer in front of us and she was 1/2 done when we walked in.  Still, we waited nearly 20 minutes to be helped. This in spite of the fact that four, yes - FOUR other employees were all standing around behind the desk. Every one if them said "hello."  Most of them said, "we'll be right with you."  Yet they all continued to stand around a visit with one another. One answered the phone about half-way through our wait and proceeded to discuss a potential reservation for many months in the future.   The others just stood there visiting.  It would have been really nice to have been given some quick attention so that we could get to our room.  Our room was also not re-stocked after the previous guests checked out - no coffee or tea or condiments. Others have been unhappy with the room design, but personally, I like it.   So, just a few service annoyances here but otherwise a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded October 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2014</t>
+  </si>
+  <si>
+    <t>Very clean rooms, comfy beds, good A/C, good sound-proofing, better breakfast than many....if the front desk staff could just step it up a bit, I would gave given this property 5 stars.  We checked in around 6:00 pm. There was only one customer in front of us and she was 1/2 done when we walked in.  Still, we waited nearly 20 minutes to be helped. This in spite of the fact that four, yes - FOUR other employees were all standing around behind the desk. Every one if them said "hello."  Most of them said, "we'll be right with you."  Yet they all continued to stand around a visit with one another. One answered the phone about half-way through our wait and proceeded to discuss a potential reservation for many months in the future.   The others just stood there visiting.  It would have been really nice to have been given some quick attention so that we could get to our room.  Our room was also not re-stocked after the previous guests checked out - no coffee or tea or condiments. Others have been unhappy with the room design, but personally, I like it.   So, just a few service annoyances here but otherwise a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r223522906-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>223522906</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Odd details at this property</t>
+  </si>
+  <si>
+    <t>Nothing new to add to the reviews of others.  The staff is great and does as well as possible with this property.  Location was great for us.  Clean, well maintained.  My complaints - like others - involve the design of the rooms.  Both bath rooms (toilet and shower) are directly across from the beds, and they have opaque doors.  So if someone turns on the light in either room, with the door closed, they are still flooding the room with light.  Also with noise since the light switch turns on a fan in both rooms.  I think this place would be great for a single traveler in a room.  5 stars for sure.  But with multiple people in the room, you lose points for the odd design choices.  Also, like others mentioned, the A/C blows directly on the closest bed.  I had to use a towel to cover more than half of the A/C vents.  Was on the 4th floor (the highest floor) facing the highway and did hear highway noise when the room was quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Nothing new to add to the reviews of others.  The staff is great and does as well as possible with this property.  Location was great for us.  Clean, well maintained.  My complaints - like others - involve the design of the rooms.  Both bath rooms (toilet and shower) are directly across from the beds, and they have opaque doors.  So if someone turns on the light in either room, with the door closed, they are still flooding the room with light.  Also with noise since the light switch turns on a fan in both rooms.  I think this place would be great for a single traveler in a room.  5 stars for sure.  But with multiple people in the room, you lose points for the odd design choices.  Also, like others mentioned, the A/C blows directly on the closest bed.  I had to use a towel to cover more than half of the A/C vents.  Was on the 4th floor (the highest floor) facing the highway and did hear highway noise when the room was quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r212888781-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>212888781</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Great get- a-way</t>
+  </si>
+  <si>
+    <t>We decided to have a one night get away. We passed this hotel while we were on the way to another one. Stopped in and decided to stay. It was a beautiful hotel. I would recommend this hotel for a quick get away to all. The rooms are very pretty. Breakfast was great. Every employee we encounter was super nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>We decided to have a one night get away. We passed this hotel while we were on the way to another one. Stopped in and decided to stay. It was a beautiful hotel. I would recommend this hotel for a quick get away to all. The rooms are very pretty. Breakfast was great. Every employee we encounter was super nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r205356460-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>205356460</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Good value, nice suites!</t>
+  </si>
+  <si>
+    <t>Hospital is within a mile of Methodist Richardson Hospital. The suite was very nice with two queen beds. The doors to the shower and commode area are frosted making sharing a room awkward. The buffet was adequate and fresh. All staff was friendly, professional and very helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hospital is within a mile of Methodist Richardson Hospital. The suite was very nice with two queen beds. The doors to the shower and commode area are frosted making sharing a room awkward. The buffet was adequate and fresh. All staff was friendly, professional and very helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r203971326-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>203971326</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>What a deal</t>
+  </si>
+  <si>
+    <t>Stayed here with my family. Very nice modern &amp; clean place.Really liked the way the bathroom was divided. Came in handy travelling with women.Large closet also came in handy with all of the luggage.Room was laid out very well.Very good breakfast.Staff was very friendly and helpful.Bed was very comfortable.I stay in Plano area once a month and usually stay at another chain. My wife said this is where we need to stay from now on.We will staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r201862934-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>201862934</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Very nice, well decorated hotel.</t>
+  </si>
+  <si>
+    <t>The hotel is in great condition and looks like a new or fairly new property. It is very nicely decorated as are many of the newer Marriott properties. Very tasteful modern decor. Large open lobby area with plenty of space to relax and spread out.
+I had a standard suite style room and it was very spacious. It had a generous sized desk, work area with a very comfortable desk chair and good lighting.Having a microwave and mini fridge was a nice touch. The bed was comfortable and an abundance of pillows were provided. It can get a bit noisy due to traffic noise. I would recommend a room on an upper floor and on the even number side rooms to get away from the highway side of the property.
+The bathroom was top notch with a huge walk in shower and high end fixtures. Supplies were top notch. The towel supply was adequate, but not overly generous. As another reviewer noted, the toilet was in a room separate from the shower and yes, there was a hook on the wall on the wall by the sink, but the hook was too small to hold a towel. So, while there was a pedestal sink in the powder room, it was not really effective without a place to hang a towel. 
+Breakfast was very good with a great selection of hot and cold items on the house. My only complaint is...The hotel is in great condition and looks like a new or fairly new property. It is very nicely decorated as are many of the newer Marriott properties. Very tasteful modern decor. Large open lobby area with plenty of space to relax and spread out.I had a standard suite style room and it was very spacious. It had a generous sized desk, work area with a very comfortable desk chair and good lighting.Having a microwave and mini fridge was a nice touch. The bed was comfortable and an abundance of pillows were provided. It can get a bit noisy due to traffic noise. I would recommend a room on an upper floor and on the even number side rooms to get away from the highway side of the property.The bathroom was top notch with a huge walk in shower and high end fixtures. Supplies were top notch. The towel supply was adequate, but not overly generous. As another reviewer noted, the toilet was in a room separate from the shower and yes, there was a hook on the wall on the wall by the sink, but the hook was too small to hold a towel. So, while there was a pedestal sink in the powder room, it was not really effective without a place to hang a towel. Breakfast was very good with a great selection of hot and cold items on the house. My only complaint is the TV was a bit loud.Staff - Very nice at the front desk. The gentleman at the bar provided some great advice on nearby restaurants also.Location - Easy access, just off the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is in great condition and looks like a new or fairly new property. It is very nicely decorated as are many of the newer Marriott properties. Very tasteful modern decor. Large open lobby area with plenty of space to relax and spread out.
+I had a standard suite style room and it was very spacious. It had a generous sized desk, work area with a very comfortable desk chair and good lighting.Having a microwave and mini fridge was a nice touch. The bed was comfortable and an abundance of pillows were provided. It can get a bit noisy due to traffic noise. I would recommend a room on an upper floor and on the even number side rooms to get away from the highway side of the property.
+The bathroom was top notch with a huge walk in shower and high end fixtures. Supplies were top notch. The towel supply was adequate, but not overly generous. As another reviewer noted, the toilet was in a room separate from the shower and yes, there was a hook on the wall on the wall by the sink, but the hook was too small to hold a towel. So, while there was a pedestal sink in the powder room, it was not really effective without a place to hang a towel. 
+Breakfast was very good with a great selection of hot and cold items on the house. My only complaint is...The hotel is in great condition and looks like a new or fairly new property. It is very nicely decorated as are many of the newer Marriott properties. Very tasteful modern decor. Large open lobby area with plenty of space to relax and spread out.I had a standard suite style room and it was very spacious. It had a generous sized desk, work area with a very comfortable desk chair and good lighting.Having a microwave and mini fridge was a nice touch. The bed was comfortable and an abundance of pillows were provided. It can get a bit noisy due to traffic noise. I would recommend a room on an upper floor and on the even number side rooms to get away from the highway side of the property.The bathroom was top notch with a huge walk in shower and high end fixtures. Supplies were top notch. The towel supply was adequate, but not overly generous. As another reviewer noted, the toilet was in a room separate from the shower and yes, there was a hook on the wall on the wall by the sink, but the hook was too small to hold a towel. So, while there was a pedestal sink in the powder room, it was not really effective without a place to hang a towel. Breakfast was very good with a great selection of hot and cold items on the house. My only complaint is the TV was a bit loud.Staff - Very nice at the front desk. The gentleman at the bar provided some great advice on nearby restaurants also.Location - Easy access, just off the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r200159324-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>200159324</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Amazing Price,  Amazing Stay</t>
+  </si>
+  <si>
+    <t>The room was very modern and I loved the layout. The seperate toilet room, and shower was great! I loved the shower with pressure spray for your back, it's so relaxing, oh not to mention the Paul Mitchell Shampoo and Conditioner.  The beds were very comfortable and the breakfast was great with many choices, for picky eaters, like myself. My only complaint was the ac rattled a bit, but I eventuality got used to it,not a big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>The room was very modern and I loved the layout. The seperate toilet room, and shower was great! I loved the shower with pressure spray for your back, it's so relaxing, oh not to mention the Paul Mitchell Shampoo and Conditioner.  The beds were very comfortable and the breakfast was great with many choices, for picky eaters, like myself. My only complaint was the ac rattled a bit, but I eventuality got used to it,not a big deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r199998313-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>199998313</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>Super hotel</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. We arrived a little before check-in time, but they got right on it and made sure our room was ready. And it was great--large and clean. It had an area roomy enough to visit with family and friends. The bed was comfortable. I've read some complaints about the air unit being noisy--I didn't find it loud but actually prefer some noise while trying to sleep so thought it was perfect. They don't have a restaurant but have a bar downstairs that is open during the evenings. We had a pleasant stay and will definitely go there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. We arrived a little before check-in time, but they got right on it and made sure our room was ready. And it was great--large and clean. It had an area roomy enough to visit with family and friends. The bed was comfortable. I've read some complaints about the air unit being noisy--I didn't find it loud but actually prefer some noise while trying to sleep so thought it was perfect. They don't have a restaurant but have a bar downstairs that is open during the evenings. We had a pleasant stay and will definitely go there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r197720843-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>197720843</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Loved this Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for a ball tournament.  Everything about this hotel was nice.  The location was quiet and easy to find.  We would stay here again.  Only wish was for a heated pool for swimming during the colder months.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded March 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a ball tournament.  Everything about this hotel was nice.  The location was quiet and easy to find.  We would stay here again.  Only wish was for a heated pool for swimming during the colder months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r194920977-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>194920977</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Form over function</t>
+  </si>
+  <si>
+    <t>Room designed to look modern and current, only the designers forgot it has to be functional too.  They must not have actually spent a night in the room.  It had a single hook to hang a towel in the bathroom.  The toilet was in a separate room, so no place to hang or set your towel when you take a shower if you have anything else to hang up.   Large room with two queen beds and a pull out sofa, but had other inconvenient "features" if more than one person is staying in the room.   Large glass panels in the bathroom and toilet closet doors looked neat but let a great deal of light shine through if some gets up in the middle of the night or earlier in the morning than the other occupant.  Oh, and the main light in both is hard wired to a vent fan that sounds like a small plane.  Positives are a good, friendly staff and a much better than average breakfast.  Still will not be staying here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2014</t>
+  </si>
+  <si>
+    <t>Room designed to look modern and current, only the designers forgot it has to be functional too.  They must not have actually spent a night in the room.  It had a single hook to hang a towel in the bathroom.  The toilet was in a separate room, so no place to hang or set your towel when you take a shower if you have anything else to hang up.   Large room with two queen beds and a pull out sofa, but had other inconvenient "features" if more than one person is staying in the room.   Large glass panels in the bathroom and toilet closet doors looked neat but let a great deal of light shine through if some gets up in the middle of the night or earlier in the morning than the other occupant.  Oh, and the main light in both is hard wired to a vent fan that sounds like a small plane.  Positives are a good, friendly staff and a much better than average breakfast.  Still will not be staying here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r194792919-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>194792919</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>Everything wonderful…..except the pillows.</t>
+  </si>
+  <si>
+    <t>Arrived quite late after driving up from Houston. We were there for UIL State Wrestling tournament a couple of miles up the road in Garland.  There were lots of wrestlers staying in the hotel, but you would never know it! 
+Very inviting fire pit outside the lobby, nice bar area and spacious breakfast area.
+Check in was smooth, room was exceptionally clean and very nice.  We were on the 4th floor so no one above.
+Our room face the freeway and I could hear  the traffic even though hotel is set back a bit. It was quite noisy so I would request a room across the hall next time.
+Cool toilet room with sink.  Shower room was great. Very roomy glass shower.
+Bed was very comfy. The pillows, however, were strangely small. There were 5 pillows on the bed and they were square, 16"-18" type pillows….not rectangular.  I asked for "regular" sized pillows from the front desk the next day (we were there 3 nights) and was given standard pillows. 
+The door to the hall could use some weather stripping at the bottom as the gap allows a good deal of light in if a very dark room is important to you.
+Nice desk area and the free wi-fi worked very well.
+Fridge and microwave very handy.
+Breakfast was above average with a very nice selection of fruit, including whole strawberries, a very good selection of accoutrements for the nice...Arrived quite late after driving up from Houston. We were there for UIL State Wrestling tournament a couple of miles up the road in Garland.  There were lots of wrestlers staying in the hotel, but you would never know it! Very inviting fire pit outside the lobby, nice bar area and spacious breakfast area.Check in was smooth, room was exceptionally clean and very nice.  We were on the 4th floor so no one above.Our room face the freeway and I could hear  the traffic even though hotel is set back a bit. It was quite noisy so I would request a room across the hall next time.Cool toilet room with sink.  Shower room was great. Very roomy glass shower.Bed was very comfy. The pillows, however, were strangely small. There were 5 pillows on the bed and they were square, 16"-18" type pillows….not rectangular.  I asked for "regular" sized pillows from the front desk the next day (we were there 3 nights) and was given standard pillows. The door to the hall could use some weather stripping at the bottom as the gap allows a good deal of light in if a very dark room is important to you.Nice desk area and the free wi-fi worked very well.Fridge and microwave very handy.Breakfast was above average with a very nice selection of fruit, including whole strawberries, a very good selection of accoutrements for the nice oatmeal, eggs and bacon or sausage and a cold meat and cheese selection. I would recommend and definitely stay again if returning to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived quite late after driving up from Houston. We were there for UIL State Wrestling tournament a couple of miles up the road in Garland.  There were lots of wrestlers staying in the hotel, but you would never know it! 
+Very inviting fire pit outside the lobby, nice bar area and spacious breakfast area.
+Check in was smooth, room was exceptionally clean and very nice.  We were on the 4th floor so no one above.
+Our room face the freeway and I could hear  the traffic even though hotel is set back a bit. It was quite noisy so I would request a room across the hall next time.
+Cool toilet room with sink.  Shower room was great. Very roomy glass shower.
+Bed was very comfy. The pillows, however, were strangely small. There were 5 pillows on the bed and they were square, 16"-18" type pillows….not rectangular.  I asked for "regular" sized pillows from the front desk the next day (we were there 3 nights) and was given standard pillows. 
+The door to the hall could use some weather stripping at the bottom as the gap allows a good deal of light in if a very dark room is important to you.
+Nice desk area and the free wi-fi worked very well.
+Fridge and microwave very handy.
+Breakfast was above average with a very nice selection of fruit, including whole strawberries, a very good selection of accoutrements for the nice...Arrived quite late after driving up from Houston. We were there for UIL State Wrestling tournament a couple of miles up the road in Garland.  There were lots of wrestlers staying in the hotel, but you would never know it! Very inviting fire pit outside the lobby, nice bar area and spacious breakfast area.Check in was smooth, room was exceptionally clean and very nice.  We were on the 4th floor so no one above.Our room face the freeway and I could hear  the traffic even though hotel is set back a bit. It was quite noisy so I would request a room across the hall next time.Cool toilet room with sink.  Shower room was great. Very roomy glass shower.Bed was very comfy. The pillows, however, were strangely small. There were 5 pillows on the bed and they were square, 16"-18" type pillows….not rectangular.  I asked for "regular" sized pillows from the front desk the next day (we were there 3 nights) and was given standard pillows. The door to the hall could use some weather stripping at the bottom as the gap allows a good deal of light in if a very dark room is important to you.Nice desk area and the free wi-fi worked very well.Fridge and microwave very handy.Breakfast was above average with a very nice selection of fruit, including whole strawberries, a very good selection of accoutrements for the nice oatmeal, eggs and bacon or sausage and a cold meat and cheese selection. I would recommend and definitely stay again if returning to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r185864924-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>185864924</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Awesome hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best hotels in the Marriott group that I have stayed in. I was not nearly expecting my room to be as nice and clean as it was. The rooms are very large, with two double beds and a pull out couch. This is great when traveling with family and gives everyone room to move. The hotel is less than two years old, so everything is really new and clean. There is a complimentary breakfast, which tasted great and had a good variety of options. There is also a bar in the lobby, which is open in the evenings. The staff have all been very helpful and friendly whenever we have had any questions. In fact, one member of our family left his cell phone at the bar and the bartender made sure that it found its way back to us. All in all, this SpringHill is a great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded November 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best hotels in the Marriott group that I have stayed in. I was not nearly expecting my room to be as nice and clean as it was. The rooms are very large, with two double beds and a pull out couch. This is great when traveling with family and gives everyone room to move. The hotel is less than two years old, so everything is really new and clean. There is a complimentary breakfast, which tasted great and had a good variety of options. There is also a bar in the lobby, which is open in the evenings. The staff have all been very helpful and friendly whenever we have had any questions. In fact, one member of our family left his cell phone at the bar and the bartender made sure that it found its way back to us. All in all, this SpringHill is a great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r184922914-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>184922914</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Absolutely Terrific!</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights with my daughter while visiting friends and we both loved it very much.  It's modern, clean, very comfy beds. A wonderful, beautiful surprise after the long drive from Houston.  The best complimentary breakfast.  Hope to visit again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights with my daughter while visiting friends and we both loved it very much.  It's modern, clean, very comfy beds. A wonderful, beautiful surprise after the long drive from Houston.  The best complimentary breakfast.  Hope to visit again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r184915749-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>184915749</t>
+  </si>
+  <si>
+    <t>Did the job for the 8 hours i was there</t>
+  </si>
+  <si>
+    <t>Stayed one night (just) at US$118 + tax booked off Marriott website. Arrived after midnight and the lobby market food was very welcome. The salad wasn't as bad as i had anticipated. The free breakfast was a decent spread with hot eggs and sausage. I've had a lot simpler free breakfasts so this was welcome. The boarding pass printing stations worked well as did the free wifi.Everything was fine. Rooms std decent quality you get at Marriotts.  Did the job perfectly for me (I was gone about 8:30am) but i did note it seemed a bit isolated with not much obviously in walking distance. May have just missed it though.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Stayed one night (just) at US$118 + tax booked off Marriott website. Arrived after midnight and the lobby market food was very welcome. The salad wasn't as bad as i had anticipated. The free breakfast was a decent spread with hot eggs and sausage. I've had a lot simpler free breakfasts so this was welcome. The boarding pass printing stations worked well as did the free wifi.Everything was fine. Rooms std decent quality you get at Marriotts.  Did the job perfectly for me (I was gone about 8:30am) but i did note it seemed a bit isolated with not much obviously in walking distance. May have just missed it though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r175584935-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>175584935</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Best Hotel I've stayed in</t>
+  </si>
+  <si>
+    <t>This hotel is a year+ old, has the best staff, and greatest rooms. I stayed in 403. Fabulous design, excellently executed. Excellent bed. Leslie (who checked us out on the last day, was just as great as the two ladies who checked us in on our first night. I wish I could remember their names, as they had excellent hospitality skills.  We stayed two nights, while our kids played in a local soccer tournament. I wish we could have stayed here longer. I will go out of my way to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry E, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is a year+ old, has the best staff, and greatest rooms. I stayed in 403. Fabulous design, excellently executed. Excellent bed. Leslie (who checked us out on the last day, was just as great as the two ladies who checked us in on our first night. I wish I could remember their names, as they had excellent hospitality skills.  We stayed two nights, while our kids played in a local soccer tournament. I wish we could have stayed here longer. I will go out of my way to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r174584547-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>174584547</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>Best Hotel in the Area and a nice modern touch on the Marriott tradition</t>
+  </si>
+  <si>
+    <t>I had my second stay at this hotel when my daughter attended the Cheer Athletics Summer Camp a few weekends ago.  The hotel again exceeded my expectations.  I had stayed there last year right after they opened and everything was outstanding. This second trip was even better. With alot of time on our hands due to her being busy with camp, the hotel provided us coupons to Hawaiian Falls Water Park and assistance in finding other things to do to keep my 10 year old son an wife and I occupied.  I know that this hotel is primarily a "business traveller" stop over based on all the customers we saw at breakfast.  The rooms are awesome and designed very well.  A great place to stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Jerry3251, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>I had my second stay at this hotel when my daughter attended the Cheer Athletics Summer Camp a few weekends ago.  The hotel again exceeded my expectations.  I had stayed there last year right after they opened and everything was outstanding. This second trip was even better. With alot of time on our hands due to her being busy with camp, the hotel provided us coupons to Hawaiian Falls Water Park and assistance in finding other things to do to keep my 10 year old son an wife and I occupied.  I know that this hotel is primarily a "business traveller" stop over based on all the customers we saw at breakfast.  The rooms are awesome and designed very well.  A great place to stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r172146218-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>172146218</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Frequent visitor</t>
+  </si>
+  <si>
+    <t>This hotel is within walking distance to my company office, but i need a car to get food, entertainment, etc..I recently stayed for 14 nights which is my longest stay of many with this hotel.  I have ventured out a bit and find the area to be reasonably safe. (for a single gal) During the week it is a great, quiet, professional environment.  However during the weekend it becomes filled with a very different crowd that is much louder and rude. (Not the hotels fault, just a comment)The rooms are clean, modern and new,  the air unit is poorly placed (next to the bed) it is loud and hard to maintain a consistent temperature.  I despise the fact you can't open any type of a window to get some fresh air in.  I understand safety concerns from a high floor room, but lack of fresh air is annoying!!I do LOVE that this hotel is completely non-smoking, honestly this is a huge reason why I return.  The hotel offers a pretty nice complimentary breakfast spread.  They offer an evening cash bar, but no food which is disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is within walking distance to my company office, but i need a car to get food, entertainment, etc..I recently stayed for 14 nights which is my longest stay of many with this hotel.  I have ventured out a bit and find the area to be reasonably safe. (for a single gal) During the week it is a great, quiet, professional environment.  However during the weekend it becomes filled with a very different crowd that is much louder and rude. (Not the hotels fault, just a comment)The rooms are clean, modern and new,  the air unit is poorly placed (next to the bed) it is loud and hard to maintain a consistent temperature.  I despise the fact you can't open any type of a window to get some fresh air in.  I understand safety concerns from a high floor room, but lack of fresh air is annoying!!I do LOVE that this hotel is completely non-smoking, honestly this is a huge reason why I return.  The hotel offers a pretty nice complimentary breakfast spread.  They offer an evening cash bar, but no food which is disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r167587082-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>167587082</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Modern decor - very nice</t>
+  </si>
+  <si>
+    <t>We recently stayed here while on our honeymoon.  We were greeted immediately when we walked in by very friendly/professional staff.  We were able to drop our trailer and motorcycle in the parking lot so that we could drive around without having to pull it around Dallas.  We stayed in a King suite and the room was very clean and the bed was comfortable.  There were even individual lights on each side of the bed for individual reading light should one person want to go to sleep and another want to stay up and read awhile.  I liked the separated bathroom so that while my husband was showering I could be in the other room getting ready.  Even though our room faced the turnpike we never heard any traffic noise.  Breakfast was really good with eggs, bacon, pastries/breads, cereal, fruit, waffles, coffee and juice.  They offer discounts for Military and AAA which we have both so the discount was nice as well.  We would definitely recommend this hotel to our family/friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Jerry3251, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>We recently stayed here while on our honeymoon.  We were greeted immediately when we walked in by very friendly/professional staff.  We were able to drop our trailer and motorcycle in the parking lot so that we could drive around without having to pull it around Dallas.  We stayed in a King suite and the room was very clean and the bed was comfortable.  There were even individual lights on each side of the bed for individual reading light should one person want to go to sleep and another want to stay up and read awhile.  I liked the separated bathroom so that while my husband was showering I could be in the other room getting ready.  Even though our room faced the turnpike we never heard any traffic noise.  Breakfast was really good with eggs, bacon, pastries/breads, cereal, fruit, waffles, coffee and juice.  They offer discounts for Military and AAA which we have both so the discount was nice as well.  We would definitely recommend this hotel to our family/friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r167568554-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>167568554</t>
+  </si>
+  <si>
+    <t>South fork Wedding 2013</t>
+  </si>
+  <si>
+    <t>This place was wonderful,greatly decorated,wonderful breakfast ,fast and easy check in and out..Very nice front desk,the only down fall of this property is the bartender,he had to be told how to make drinks,what they were and took more then 20 minutes to make 4 simple drinks and then needed to be reminded of what we had ordered to charge us for the drinks... Special note he had to be or looked  to be and acted as though he was pushing 80...The king suite was very clean and bed was comfortable with a great breakfast... Would stay again,just not order from the bar area...the receptionist was unable to tell my husband how to get the electronics to work in the gym area...MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was wonderful,greatly decorated,wonderful breakfast ,fast and easy check in and out..Very nice front desk,the only down fall of this property is the bartender,he had to be told how to make drinks,what they were and took more then 20 minutes to make 4 simple drinks and then needed to be reminded of what we had ordered to charge us for the drinks... Special note he had to be or looked  to be and acted as though he was pushing 80...The king suite was very clean and bed was comfortable with a great breakfast... Would stay again,just not order from the bar area...the receptionist was unable to tell my husband how to get the electronics to work in the gym area...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r166795146-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>166795146</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>No problems...</t>
+  </si>
+  <si>
+    <t>This hotel was nice, wish there was a bathtub for people with small children. The rooms are kind of small for it to be a suite and the swimming pool was a tad bit small. The breakfast was great, and there were different options each day-only thing is the juice was not that great. The staff was very friendly so overall, this was not a bad hotel at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry3251, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was nice, wish there was a bathtub for people with small children. The rooms are kind of small for it to be a suite and the swimming pool was a tad bit small. The breakfast was great, and there were different options each day-only thing is the juice was not that great. The staff was very friendly so overall, this was not a bad hotel at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r163287744-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>163287744</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, good location right off the highway, Nice breakfast</t>
+  </si>
+  <si>
+    <t>Probably one of the warmest welcomes i have had to hotel in a while.The front desk staff were awesome.Rooms are very nice and everything works.Breakfast was nice, good variety and lots of sitting area.Pool and Gym are good.This will be my new home-away-from-home in Richardson.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Jerry3251, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded June 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2013</t>
+  </si>
+  <si>
+    <t>Probably one of the warmest welcomes i have had to hotel in a while.The front desk staff were awesome.Rooms are very nice and everything works.Breakfast was nice, good variety and lots of sitting area.Pool and Gym are good.This will be my new home-away-from-home in Richardson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r160374341-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>160374341</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Best stay</t>
+  </si>
+  <si>
+    <t>I stayed for 5 nights and could not have been happier from the moment I checked in. All associates were genuinely warm and helpful. No fake smiles. Very accommodating to all my tedious needs. I stayed in the standard king  room   It was clean and modern! Nice tv and the way the shower/bathroom is set up is so nice!!!Speaking of shower---WOW so cool. Awesome water pressure and it had the dual optional wall spouts that feel so great. I needed that! Breakfast was good too! And the bar was open at 5 everyday.Super nice. Chill atmosphere. Quiet. Modern. Good people. Also I got a great rate off Priceline for the 1st 2 days and the hotel extended my stay for the same price. Way cool. I'll stay there again when needed. Cheers!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerry3251, General Manager at SpringHill Suites Dallas Richardson/Plano, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for 5 nights and could not have been happier from the moment I checked in. All associates were genuinely warm and helpful. No fake smiles. Very accommodating to all my tedious needs. I stayed in the standard king  room   It was clean and modern! Nice tv and the way the shower/bathroom is set up is so nice!!!Speaking of shower---WOW so cool. Awesome water pressure and it had the dual optional wall spouts that feel so great. I needed that! Breakfast was good too! And the bar was open at 5 everyday.Super nice. Chill atmosphere. Quiet. Modern. Good people. Also I got a great rate off Priceline for the 1st 2 days and the hotel extended my stay for the same price. Way cool. I'll stay there again when needed. Cheers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r160288058-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>160288058</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Super nice!</t>
+  </si>
+  <si>
+    <t>Quite new Springhill Suites with a very efficient and friendly staff.  Room has a  big shower and sink area in one room with a toilet and sink in another room. Colors in the room were lovely.  Breakfast has a large variety from which to choose.  We have stayed on two different occasions and would definitely return if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Quite new Springhill Suites with a very efficient and friendly staff.  Room has a  big shower and sink area in one room with a toilet and sink in another room. Colors in the room were lovely.  Breakfast has a large variety from which to choose.  We have stayed on two different occasions and would definitely return if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r155991854-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>155991854</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Really, Really Nice Surprise</t>
+  </si>
+  <si>
+    <t>I travel enough to be a Marriott Platinum Plus, and a Hilton Diamond...that is a lot.  Suffice it to say, I've seen many Marriott and Hilton properties, and each brand has their positives and negatives, but all in all, they are fairly consistent.  A Courtyard is a Courtyard, a Garden Inn is a Garden Inn...you get the drift.  SpringHill seems to be the Marriott's revamped Hip hotel brand, and this SpringHill certainly measured up.  I was able to upgrade to a suite, and it was truly a very nice room, especially when you consider the affordable price.  Room layout is a very personal thing, but for me, the Euro-esque feel of these rooms is fantastic.  It's different enough, but not so crazy that you don't feel comfortable.  Everything else was what you would expect from a good Marriott property; Clean, comfortable, friendly.  If you are looking for a hotel in this area, this would be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I travel enough to be a Marriott Platinum Plus, and a Hilton Diamond...that is a lot.  Suffice it to say, I've seen many Marriott and Hilton properties, and each brand has their positives and negatives, but all in all, they are fairly consistent.  A Courtyard is a Courtyard, a Garden Inn is a Garden Inn...you get the drift.  SpringHill seems to be the Marriott's revamped Hip hotel brand, and this SpringHill certainly measured up.  I was able to upgrade to a suite, and it was truly a very nice room, especially when you consider the affordable price.  Room layout is a very personal thing, but for me, the Euro-esque feel of these rooms is fantastic.  It's different enough, but not so crazy that you don't feel comfortable.  Everything else was what you would expect from a good Marriott property; Clean, comfortable, friendly.  If you are looking for a hotel in this area, this would be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r153801795-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>153801795</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>A Must When in Dallas Area</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights at this property and was pleasantly surprised.  I had received a call the day before my first night telling me they had moved me to another hotel closeby because they  needed my room.  When I asked about the second night, they apologized and didnt move me. That was a little unsettling, and I didnt know what to expect.  However, once I got to the property, my experience was so pleasant. The desk clerks were exceptional; location was convenient for me; and property was spotless.  It is a fairly new property.  My room had 2 queen beds, one bath with tub/shower/vanity and a half bath with no bathing facility.  LR area has comfortable sofa, lamp, desk, free wi-fi, wide-screen TV.  There was a walk-in closet which was perfect for suitcase and hanging clothes.  Room very clean.  Free breakfast with good selection in a clean dining area.  I look forward to staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights at this property and was pleasantly surprised.  I had received a call the day before my first night telling me they had moved me to another hotel closeby because they  needed my room.  When I asked about the second night, they apologized and didnt move me. That was a little unsettling, and I didnt know what to expect.  However, once I got to the property, my experience was so pleasant. The desk clerks were exceptional; location was convenient for me; and property was spotless.  It is a fairly new property.  My room had 2 queen beds, one bath with tub/shower/vanity and a half bath with no bathing facility.  LR area has comfortable sofa, lamp, desk, free wi-fi, wide-screen TV.  There was a walk-in closet which was perfect for suitcase and hanging clothes.  Room very clean.  Free breakfast with good selection in a clean dining area.  I look forward to staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r153652990-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>153652990</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Springhill Suites Dallas/Plano</t>
+  </si>
+  <si>
+    <t>Beautiful new hotel. Room keys are RFID, which is very convenient.  There are no restaurants within walking distance, but there are several choices within 5 miles. Workout room was great, and the breakfast included several hot items.  Asked for additional shampoo and conditioner after my workout at the front desk, and they said housekeeping would bring some down, odd that they didn't have any there. Housekeeping knocked on my door 10 min later asking if I still needed it. After I said yes, they went to get some,coming back 5 min later. Strange.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r149115650-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>149115650</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Nice Room But out of no where....</t>
+  </si>
+  <si>
+    <t>Biz trip here and it is not far from my office. But there is no restaurant in the hotel, you will need a car to move around. not even walking distance.Room is clean and comfy.... the nearest shopping mall is Firewheel Town Center which is about 5miles from the hotel.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r147886503-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>147886503</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>AMAZING New Hotel</t>
+  </si>
+  <si>
+    <t>Just WOW! I wish my trip here was longer, rather than just a pass-through hotel for me. This property is nothing short of awesome. This was my first stay here, and surely won't be my last. This brand new Springhill Suites should be the model for all.
+The lobby, like the rest of the property is very modern. From just walking from the parking lot to the front door, I could just tell that it was going to be something special. The detail you see on the outside of the building was very tasteful. 
+We were greeted at the desk, and promptly given a room on the 2nd floor. The agent was sure to explain all of the details of the property, as well as the "green" features of our room. This made us feel very welcome and familiar with the property. The room keys are RFID (nice touch), making entry into the room simple. 
+Upon entry, the room was beautiful and very well laid out. The 2 queen room left plenty of space to move around, and the design of the living area made it feel like an entire new space in our suite. The room has 2 sinks, one in the main bathroom with the shower, and the other in the smaller bathroom with the toilet. This is great when traveling with family, as others can get ready for the day while someone is using the shower without...Just WOW! I wish my trip here was longer, rather than just a pass-through hotel for me. This property is nothing short of awesome. This was my first stay here, and surely won't be my last. This brand new Springhill Suites should be the model for all.The lobby, like the rest of the property is very modern. From just walking from the parking lot to the front door, I could just tell that it was going to be something special. The detail you see on the outside of the building was very tasteful. We were greeted at the desk, and promptly given a room on the 2nd floor. The agent was sure to explain all of the details of the property, as well as the "green" features of our room. This made us feel very welcome and familiar with the property. The room keys are RFID (nice touch), making entry into the room simple. Upon entry, the room was beautiful and very well laid out. The 2 queen room left plenty of space to move around, and the design of the living area made it feel like an entire new space in our suite. The room has 2 sinks, one in the main bathroom with the shower, and the other in the smaller bathroom with the toilet. This is great when traveling with family, as others can get ready for the day while someone is using the shower without a problem, all while giving the entire family privacy while using the bathroom. Another touch I really liked was the locks on the sliding bathroom doors. I know it seems weird, but have staying in many newer hotels with these sliding doors, not many have the locks due to the design. The shower has some extra jets in the wall, making for a very luxurious shower. I really enjoyed this extra touch of luxury that is usually only seen in very upscale hotels. I have stayed in many full service hotels that don't even have this. To find it in a smaller hotel like this was extra cool! The bath amenities were also very nice.When it comes to sleep quality, these are probably some of the best mattresses I have ever slept on in a Springhill! There was no noise from outside. Granted, my room was on the opposite side of the building from the Turnpike, it seemed like a very quiet road at night, so it shouldn't be an issue for those staying on the backside of the building. For those with issues with noise A/C units, the unit in my room was whisper quiet, even when turning on and off! That is something you don't see with most window unit style units. My room was also right across from the elevator, and I wouldn't have even noticed since they are behind a wall in a way, blocking any noise, if any.I didn't use any of the amenities in the hotel such as the pool, bar, fitness room, or business center, but all looked extremely nice. The lobby looked great for grabbing an evening drink and hanging in the lobby, or even heading out to the fire pit. Overall, this is a great new property for this area. Can't wait to come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Just WOW! I wish my trip here was longer, rather than just a pass-through hotel for me. This property is nothing short of awesome. This was my first stay here, and surely won't be my last. This brand new Springhill Suites should be the model for all.
+The lobby, like the rest of the property is very modern. From just walking from the parking lot to the front door, I could just tell that it was going to be something special. The detail you see on the outside of the building was very tasteful. 
+We were greeted at the desk, and promptly given a room on the 2nd floor. The agent was sure to explain all of the details of the property, as well as the "green" features of our room. This made us feel very welcome and familiar with the property. The room keys are RFID (nice touch), making entry into the room simple. 
+Upon entry, the room was beautiful and very well laid out. The 2 queen room left plenty of space to move around, and the design of the living area made it feel like an entire new space in our suite. The room has 2 sinks, one in the main bathroom with the shower, and the other in the smaller bathroom with the toilet. This is great when traveling with family, as others can get ready for the day while someone is using the shower without...Just WOW! I wish my trip here was longer, rather than just a pass-through hotel for me. This property is nothing short of awesome. This was my first stay here, and surely won't be my last. This brand new Springhill Suites should be the model for all.The lobby, like the rest of the property is very modern. From just walking from the parking lot to the front door, I could just tell that it was going to be something special. The detail you see on the outside of the building was very tasteful. We were greeted at the desk, and promptly given a room on the 2nd floor. The agent was sure to explain all of the details of the property, as well as the "green" features of our room. This made us feel very welcome and familiar with the property. The room keys are RFID (nice touch), making entry into the room simple. Upon entry, the room was beautiful and very well laid out. The 2 queen room left plenty of space to move around, and the design of the living area made it feel like an entire new space in our suite. The room has 2 sinks, one in the main bathroom with the shower, and the other in the smaller bathroom with the toilet. This is great when traveling with family, as others can get ready for the day while someone is using the shower without a problem, all while giving the entire family privacy while using the bathroom. Another touch I really liked was the locks on the sliding bathroom doors. I know it seems weird, but have staying in many newer hotels with these sliding doors, not many have the locks due to the design. The shower has some extra jets in the wall, making for a very luxurious shower. I really enjoyed this extra touch of luxury that is usually only seen in very upscale hotels. I have stayed in many full service hotels that don't even have this. To find it in a smaller hotel like this was extra cool! The bath amenities were also very nice.When it comes to sleep quality, these are probably some of the best mattresses I have ever slept on in a Springhill! There was no noise from outside. Granted, my room was on the opposite side of the building from the Turnpike, it seemed like a very quiet road at night, so it shouldn't be an issue for those staying on the backside of the building. For those with issues with noise A/C units, the unit in my room was whisper quiet, even when turning on and off! That is something you don't see with most window unit style units. My room was also right across from the elevator, and I wouldn't have even noticed since they are behind a wall in a way, blocking any noise, if any.I didn't use any of the amenities in the hotel such as the pool, bar, fitness room, or business center, but all looked extremely nice. The lobby looked great for grabbing an evening drink and hanging in the lobby, or even heading out to the fire pit. Overall, this is a great new property for this area. Can't wait to come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r146876205-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>146876205</t>
+  </si>
+  <si>
+    <t>12/06/2012</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t>Sadly, I only stayed one night in this beautiful hotel. The rooms were stunning. The beds were clean and very comfortable.The staff extremely friendly. The free breakfast was better than most. The hotel is very modern and very "Green". If you are in the area there is no better place to stay especially in this price range!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r141198128-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>141198128</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Best Spring Hill Suites</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night in September 2012. This is perhaps the best Springhill Suites I have ever stayed.The hotel was brand new and very clean. The lobby area is very modern and stylish. The rooms have very good layout, using a glass wall separating the work area and the sleeping area, which makes the room feel bright and open (most Springhill suites use a solid wooden wall between the two areas, which make the room feeling small). The shower area and the toilet are separate. The king size bed feel nice and comfortable.You need to use a room key to active the electricity in the room. This is very common for hotels in Asia, but this is the first Marriott property in the US that I have seen having this feature. Breakfast was very good.Overall I am very happy with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night in September 2012. This is perhaps the best Springhill Suites I have ever stayed.The hotel was brand new and very clean. The lobby area is very modern and stylish. The rooms have very good layout, using a glass wall separating the work area and the sleeping area, which makes the room feel bright and open (most Springhill suites use a solid wooden wall between the two areas, which make the room feeling small). The shower area and the toilet are separate. The king size bed feel nice and comfortable.You need to use a room key to active the electricity in the room. This is very common for hotels in Asia, but this is the first Marriott property in the US that I have seen having this feature. Breakfast was very good.Overall I am very happy with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r140695350-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>140695350</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Returning in 2 weeks....:0)</t>
+  </si>
+  <si>
+    <t>My husband and I just stayed at this hotel this past weekend, for one night.  We are returning in 2 weeks with our grown children.  We really liked the hotel, it was clean and has lovely decor.   The front desk clerk was wonderful.  We had originally booked a 2 queen room because we thought our kids were coming with us this past weekend.  She graciously moved us to a king suite when I explained to her that it would only be my hubby and I after all.  The computer gave her some issues in doing it but she was persistent and finally got it to change the reservation.  We were very grateful.
+Breakfast was decent for the most part.  The potatoes had a little too much garlic for my taste, and maybe because we ate so early they didn't seem quite done.  There is plenty to choose from for breakfast so I was just fine without the potatoes.  Coffee was adequate, not wonderful but I have definately had worse.
+We used the wireless internet in our rooms and experienced no problems with it.  Some hotels have week signals that drive me bonkers, but like I said, no issues with theres.  The room was very roomy and very clean.  My only complaint about the room was the skimpy amount of towel.  One washcloth and 2 towels for 2 adults.  We will definately be requesting extra towels when we return. 
+This is...My husband and I just stayed at this hotel this past weekend, for one night.  We are returning in 2 weeks with our grown children.  We really liked the hotel, it was clean and has lovely decor.   The front desk clerk was wonderful.  We had originally booked a 2 queen room because we thought our kids were coming with us this past weekend.  She graciously moved us to a king suite when I explained to her that it would only be my hubby and I after all.  The computer gave her some issues in doing it but she was persistent and finally got it to change the reservation.  We were very grateful.Breakfast was decent for the most part.  The potatoes had a little too much garlic for my taste, and maybe because we ate so early they didn't seem quite done.  There is plenty to choose from for breakfast so I was just fine without the potatoes.  Coffee was adequate, not wonderful but I have definately had worse.We used the wireless internet in our rooms and experienced no problems with it.  Some hotels have week signals that drive me bonkers, but like I said, no issues with theres.  The room was very roomy and very clean.  My only complaint about the room was the skimpy amount of towel.  One washcloth and 2 towels for 2 adults.  We will definately be requesting extra towels when we return. This is by no means a top notch 5 star hotel, but for the cost of the room (76.00 p/nt) we found it to be an awesome value without giving up cleanliness and comfort.  The location is not bad either.  We made it to dinner in Dallas on a Saturday night in 15 minutes.  Not bad in my opinion. So definately check this place out when you are in the area....MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I just stayed at this hotel this past weekend, for one night.  We are returning in 2 weeks with our grown children.  We really liked the hotel, it was clean and has lovely decor.   The front desk clerk was wonderful.  We had originally booked a 2 queen room because we thought our kids were coming with us this past weekend.  She graciously moved us to a king suite when I explained to her that it would only be my hubby and I after all.  The computer gave her some issues in doing it but she was persistent and finally got it to change the reservation.  We were very grateful.
+Breakfast was decent for the most part.  The potatoes had a little too much garlic for my taste, and maybe because we ate so early they didn't seem quite done.  There is plenty to choose from for breakfast so I was just fine without the potatoes.  Coffee was adequate, not wonderful but I have definately had worse.
+We used the wireless internet in our rooms and experienced no problems with it.  Some hotels have week signals that drive me bonkers, but like I said, no issues with theres.  The room was very roomy and very clean.  My only complaint about the room was the skimpy amount of towel.  One washcloth and 2 towels for 2 adults.  We will definately be requesting extra towels when we return. 
+This is...My husband and I just stayed at this hotel this past weekend, for one night.  We are returning in 2 weeks with our grown children.  We really liked the hotel, it was clean and has lovely decor.   The front desk clerk was wonderful.  We had originally booked a 2 queen room because we thought our kids were coming with us this past weekend.  She graciously moved us to a king suite when I explained to her that it would only be my hubby and I after all.  The computer gave her some issues in doing it but she was persistent and finally got it to change the reservation.  We were very grateful.Breakfast was decent for the most part.  The potatoes had a little too much garlic for my taste, and maybe because we ate so early they didn't seem quite done.  There is plenty to choose from for breakfast so I was just fine without the potatoes.  Coffee was adequate, not wonderful but I have definately had worse.We used the wireless internet in our rooms and experienced no problems with it.  Some hotels have week signals that drive me bonkers, but like I said, no issues with theres.  The room was very roomy and very clean.  My only complaint about the room was the skimpy amount of towel.  One washcloth and 2 towels for 2 adults.  We will definately be requesting extra towels when we return. This is by no means a top notch 5 star hotel, but for the cost of the room (76.00 p/nt) we found it to be an awesome value without giving up cleanliness and comfort.  The location is not bad either.  We made it to dinner in Dallas on a Saturday night in 15 minutes.  Not bad in my opinion. So definately check this place out when you are in the area....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r140563480-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>140563480</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Suburban Outpost</t>
+  </si>
+  <si>
+    <t>Positives: Ultra-new; ultra-modern; great service and breakfast
+Negatives: Strange bath and closet configuration; isolated
+If you're looking for first-class lodging in the north Dallas area and don't mind traveling a bit out of the way, this is a hotel you should consider.
+It's an extremely nice, new property that is comfortable and stylish with a customer-oriented staff...and from the perspective of a non-business traveller...remote. 
+The published address is President George W. Bush Turnpike, but the bulding really faces Shiloh Road. (I suppose the Turnpike address lends a certain cachet a mere "road" doesn't have...)
+If you (like us) prefer to avoid the turnpike, simply take U.S. 75 (Central Expressway) to the Renner Road exit and proceed east to Shiloh. The hotel is a short distance south of the Renner/Shiloh intersection.
+We overheard staffers say the hotel was overbooked during our visit Labor Day weekend. Our midnight check-in experience confirmed those rumors...
+I'd reserved a two bed suite to accommodate three adult family members. With two beds and the sofa, each would have a separate place to sleep. At check-in the clerk said we'd been assigned a single king room. That was not acceptable given the mix of our group. 
+The clerk reviewed  and re-reviewed room records, found an unoccupied two-bed suite, and verified it had been cleaned before allowing us in. Although the process took about 20 minutes, we appreciated the effort, especially since it allowed us to stay here...Positives: Ultra-new; ultra-modern; great service and breakfastNegatives: Strange bath and closet configuration; isolatedIf you're looking for first-class lodging in the north Dallas area and don't mind traveling a bit out of the way, this is a hotel you should consider.It's an extremely nice, new property that is comfortable and stylish with a customer-oriented staff...and from the perspective of a non-business traveller...remote. The published address is President George W. Bush Turnpike, but the bulding really faces Shiloh Road. (I suppose the Turnpike address lends a certain cachet a mere "road" doesn't have...)If you (like us) prefer to avoid the turnpike, simply take U.S. 75 (Central Expressway) to the Renner Road exit and proceed east to Shiloh. The hotel is a short distance south of the Renner/Shiloh intersection.We overheard staffers say the hotel was overbooked during our visit Labor Day weekend. Our midnight check-in experience confirmed those rumors...I'd reserved a two bed suite to accommodate three adult family members. With two beds and the sofa, each would have a separate place to sleep. At check-in the clerk said we'd been assigned a single king room. That was not acceptable given the mix of our group. The clerk reviewed  and re-reviewed room records, found an unoccupied two-bed suite, and verified it had been cleaned before allowing us in. Although the process took about 20 minutes, we appreciated the effort, especially since it allowed us to stay here rather than elsewhere.Inside and out, this property is a great example of ultra-modern design. Straight lines prevail throughout, relieved by a few curves and accented by a variety of interesting patterns, bright colors, and unusual textures. The overall effect is both stunning and pleasing.Our room was beautiful, clean, comfortable, and well-stocked. The entry door opened into a compact sitting area complete with sofa, lamps, and a nook containing a microwave and mini-fridge. Wired and wireless internet were both available.A "master switch" similar to a traditional cardkey reader is used to activate electrical appliances in the room. This device is located next to the door. Simply insert and leave your key in the reader to turn on power for lamps and other items. Removing the key at departure turns off the electricity to key devices, reducing electrical usage.Sitting and sleeping areas are separated by a built-in desk. Four fluffy pillows were provided for both bed. Extra linens were available for the sofa bed. The "bathroom" was another innovative feature of our suite. The toilet and shower were in separate chambers, separated by a closet. Each chamber was accessed though the sleeping area; you couldn't pass directly from one to the other. The toilet chamber featured a small wash basin in the corner. The shower chamber contained a larger sink and vanity. No tub was provided.This configuration offers some advantages. For instance, it allows two people to use different facilities simultaneously without interfering with each other. Some drawbacks exist. In cases like ours, occupants are required to dress completely in order to move from one chamber to another.While they were visually impressive, the minimalist design caused other inconveniences. Space for toiletries, clean clothes, and towels is limited. Only one towel bar was provided...and that was on the shower door. The vanity had a small counter top; much of that was used by the sink. One small metal stud was available to hang clothing.Main breakfast courses changed daily during our stay, but always included scrambled eggs and some type of sausage. A wide variety of alternatives from cook-them-yourself waffles to cold cereal were also available for those who prefer lighter fare.In some ways, this hotel reminded us of frontier forts of the American West. Located away from restaurants, shopping, and other lodging, this SpringHill Suites stands as an outpost on a new frontier, where corporate campuses replace mountains, greenbelts serve as forests, and grasslands roll across vacant lots. It's an oasis in suburban desert, a good value, and is definitely a place we'd return if in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Positives: Ultra-new; ultra-modern; great service and breakfast
+Negatives: Strange bath and closet configuration; isolated
+If you're looking for first-class lodging in the north Dallas area and don't mind traveling a bit out of the way, this is a hotel you should consider.
+It's an extremely nice, new property that is comfortable and stylish with a customer-oriented staff...and from the perspective of a non-business traveller...remote. 
+The published address is President George W. Bush Turnpike, but the bulding really faces Shiloh Road. (I suppose the Turnpike address lends a certain cachet a mere "road" doesn't have...)
+If you (like us) prefer to avoid the turnpike, simply take U.S. 75 (Central Expressway) to the Renner Road exit and proceed east to Shiloh. The hotel is a short distance south of the Renner/Shiloh intersection.
+We overheard staffers say the hotel was overbooked during our visit Labor Day weekend. Our midnight check-in experience confirmed those rumors...
+I'd reserved a two bed suite to accommodate three adult family members. With two beds and the sofa, each would have a separate place to sleep. At check-in the clerk said we'd been assigned a single king room. That was not acceptable given the mix of our group. 
+The clerk reviewed  and re-reviewed room records, found an unoccupied two-bed suite, and verified it had been cleaned before allowing us in. Although the process took about 20 minutes, we appreciated the effort, especially since it allowed us to stay here...Positives: Ultra-new; ultra-modern; great service and breakfastNegatives: Strange bath and closet configuration; isolatedIf you're looking for first-class lodging in the north Dallas area and don't mind traveling a bit out of the way, this is a hotel you should consider.It's an extremely nice, new property that is comfortable and stylish with a customer-oriented staff...and from the perspective of a non-business traveller...remote. The published address is President George W. Bush Turnpike, but the bulding really faces Shiloh Road. (I suppose the Turnpike address lends a certain cachet a mere "road" doesn't have...)If you (like us) prefer to avoid the turnpike, simply take U.S. 75 (Central Expressway) to the Renner Road exit and proceed east to Shiloh. The hotel is a short distance south of the Renner/Shiloh intersection.We overheard staffers say the hotel was overbooked during our visit Labor Day weekend. Our midnight check-in experience confirmed those rumors...I'd reserved a two bed suite to accommodate three adult family members. With two beds and the sofa, each would have a separate place to sleep. At check-in the clerk said we'd been assigned a single king room. That was not acceptable given the mix of our group. The clerk reviewed  and re-reviewed room records, found an unoccupied two-bed suite, and verified it had been cleaned before allowing us in. Although the process took about 20 minutes, we appreciated the effort, especially since it allowed us to stay here rather than elsewhere.Inside and out, this property is a great example of ultra-modern design. Straight lines prevail throughout, relieved by a few curves and accented by a variety of interesting patterns, bright colors, and unusual textures. The overall effect is both stunning and pleasing.Our room was beautiful, clean, comfortable, and well-stocked. The entry door opened into a compact sitting area complete with sofa, lamps, and a nook containing a microwave and mini-fridge. Wired and wireless internet were both available.A "master switch" similar to a traditional cardkey reader is used to activate electrical appliances in the room. This device is located next to the door. Simply insert and leave your key in the reader to turn on power for lamps and other items. Removing the key at departure turns off the electricity to key devices, reducing electrical usage.Sitting and sleeping areas are separated by a built-in desk. Four fluffy pillows were provided for both bed. Extra linens were available for the sofa bed. The "bathroom" was another innovative feature of our suite. The toilet and shower were in separate chambers, separated by a closet. Each chamber was accessed though the sleeping area; you couldn't pass directly from one to the other. The toilet chamber featured a small wash basin in the corner. The shower chamber contained a larger sink and vanity. No tub was provided.This configuration offers some advantages. For instance, it allows two people to use different facilities simultaneously without interfering with each other. Some drawbacks exist. In cases like ours, occupants are required to dress completely in order to move from one chamber to another.While they were visually impressive, the minimalist design caused other inconveniences. Space for toiletries, clean clothes, and towels is limited. Only one towel bar was provided...and that was on the shower door. The vanity had a small counter top; much of that was used by the sink. One small metal stud was available to hang clothing.Main breakfast courses changed daily during our stay, but always included scrambled eggs and some type of sausage. A wide variety of alternatives from cook-them-yourself waffles to cold cereal were also available for those who prefer lighter fare.In some ways, this hotel reminded us of frontier forts of the American West. Located away from restaurants, shopping, and other lodging, this SpringHill Suites stands as an outpost on a new frontier, where corporate campuses replace mountains, greenbelts serve as forests, and grasslands roll across vacant lots. It's an oasis in suburban desert, a good value, and is definitely a place we'd return if in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r137586291-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>137586291</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Beautiful, modern property</t>
+  </si>
+  <si>
+    <t>I stayed at this location recently. I was in town for unfortunate events and the staff was very helpful with a request I had. The hotel was beatiful. New, clean and modern. Loved the seperate shower. The bed was amazingly comfortable, great room layout, good breakfast selection. Thanks again to the staff member that extended my reservation for family!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r136942113-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>136942113</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Very nice property, definitely would stay here again</t>
+  </si>
+  <si>
+    <t>The room was clean and of pretty good quality (e.g. walls thicker than most). Decent internet, both wired and wireless. Breakfast hours are a reasonable 6 to 10 and the variety is good for the type of hotel. Did not use pool or whirlpool but it seemed nice. There is even a small bar in the lobby!
+The basic room was attractive and functional. It had a small refrigerator and a microwave. There was a sitting area with a desk and a couple of small tables along with a couch. A glass partition separates that from a sleeping area. Rounding out the space was a small room with a toilet and tiny sink and then a larger bathroom with a shower and a another wash basin.
+Now for the weird stuff: The shower stall is slippery but has no grab bar. There is hardly any place to hang towels and even the hook which exists is poorly designed and doesn't hold much. The glass partition between the sleeping area and sitting area obviously lets light through -- it would be nice if it was opaque so a light could be on in one area without disturbing someone trying to sleep in the other. The chime on the elevator is incredibly loud and I could hear it in the room a third of the way down the hall with the door closed!
+Overall it's still very nice if you can learn...The room was clean and of pretty good quality (e.g. walls thicker than most). Decent internet, both wired and wireless. Breakfast hours are a reasonable 6 to 10 and the variety is good for the type of hotel. Did not use pool or whirlpool but it seemed nice. There is even a small bar in the lobby!The basic room was attractive and functional. It had a small refrigerator and a microwave. There was a sitting area with a desk and a couple of small tables along with a couch. A glass partition separates that from a sleeping area. Rounding out the space was a small room with a toilet and tiny sink and then a larger bathroom with a shower and a another wash basin.Now for the weird stuff: The shower stall is slippery but has no grab bar. There is hardly any place to hang towels and even the hook which exists is poorly designed and doesn't hold much. The glass partition between the sleeping area and sitting area obviously lets light through -- it would be nice if it was opaque so a light could be on in one area without disturbing someone trying to sleep in the other. The chime on the elevator is incredibly loud and I could hear it in the room a third of the way down the hall with the door closed!Overall it's still very nice if you can learn to accept or work around those very silly design flaws.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and of pretty good quality (e.g. walls thicker than most). Decent internet, both wired and wireless. Breakfast hours are a reasonable 6 to 10 and the variety is good for the type of hotel. Did not use pool or whirlpool but it seemed nice. There is even a small bar in the lobby!
+The basic room was attractive and functional. It had a small refrigerator and a microwave. There was a sitting area with a desk and a couple of small tables along with a couch. A glass partition separates that from a sleeping area. Rounding out the space was a small room with a toilet and tiny sink and then a larger bathroom with a shower and a another wash basin.
+Now for the weird stuff: The shower stall is slippery but has no grab bar. There is hardly any place to hang towels and even the hook which exists is poorly designed and doesn't hold much. The glass partition between the sleeping area and sitting area obviously lets light through -- it would be nice if it was opaque so a light could be on in one area without disturbing someone trying to sleep in the other. The chime on the elevator is incredibly loud and I could hear it in the room a third of the way down the hall with the door closed!
+Overall it's still very nice if you can learn...The room was clean and of pretty good quality (e.g. walls thicker than most). Decent internet, both wired and wireless. Breakfast hours are a reasonable 6 to 10 and the variety is good for the type of hotel. Did not use pool or whirlpool but it seemed nice. There is even a small bar in the lobby!The basic room was attractive and functional. It had a small refrigerator and a microwave. There was a sitting area with a desk and a couple of small tables along with a couch. A glass partition separates that from a sleeping area. Rounding out the space was a small room with a toilet and tiny sink and then a larger bathroom with a shower and a another wash basin.Now for the weird stuff: The shower stall is slippery but has no grab bar. There is hardly any place to hang towels and even the hook which exists is poorly designed and doesn't hold much. The glass partition between the sleeping area and sitting area obviously lets light through -- it would be nice if it was opaque so a light could be on in one area without disturbing someone trying to sleep in the other. The chime on the elevator is incredibly loud and I could hear it in the room a third of the way down the hall with the door closed!Overall it's still very nice if you can learn to accept or work around those very silly design flaws.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r129823975-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>129823975</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>Great new place close to my place of business</t>
+  </si>
+  <si>
+    <t>This place is brand new which has it's own advantages.  Breakfast has both hot and cold items and all the rooms are set up as mini suites.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2416,5078 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>153</v>
+      </c>
+      <c r="X20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>153</v>
+      </c>
+      <c r="X21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>187</v>
+      </c>
+      <c r="X22" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>187</v>
+      </c>
+      <c r="X23" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>187</v>
+      </c>
+      <c r="X24" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>224</v>
+      </c>
+      <c r="X28" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>247</v>
+      </c>
+      <c r="X30" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>247</v>
+      </c>
+      <c r="X31" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>286</v>
+      </c>
+      <c r="X35" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>294</v>
+      </c>
+      <c r="X36" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>161</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>294</v>
+      </c>
+      <c r="X37" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>310</v>
+      </c>
+      <c r="X38" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>318</v>
+      </c>
+      <c r="X39" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>326</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>327</v>
+      </c>
+      <c r="X40" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>331</v>
+      </c>
+      <c r="J41" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>344</v>
+      </c>
+      <c r="X42" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>353</v>
+      </c>
+      <c r="X43" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>362</v>
+      </c>
+      <c r="X44" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>365</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>366</v>
+      </c>
+      <c r="J45" t="s">
+        <v>367</v>
+      </c>
+      <c r="K45" t="s">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s">
+        <v>369</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>370</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>371</v>
+      </c>
+      <c r="X45" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>375</v>
+      </c>
+      <c r="J46" t="s">
+        <v>376</v>
+      </c>
+      <c r="K46" t="s">
+        <v>377</v>
+      </c>
+      <c r="L46" t="s">
+        <v>378</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>379</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>371</v>
+      </c>
+      <c r="X46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>386</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>387</v>
+      </c>
+      <c r="X47" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" t="s">
+        <v>392</v>
+      </c>
+      <c r="K48" t="s">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s">
+        <v>394</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>387</v>
+      </c>
+      <c r="X48" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>386</v>
+      </c>
+      <c r="O49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s">
+        <v>405</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>406</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>407</v>
+      </c>
+      <c r="X50" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+      <c r="J51" t="s">
+        <v>412</v>
+      </c>
+      <c r="K51" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s">
+        <v>414</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>415</v>
+      </c>
+      <c r="X51" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>419</v>
+      </c>
+      <c r="J52" t="s">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>423</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>415</v>
+      </c>
+      <c r="X52" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>426</v>
+      </c>
+      <c r="J53" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" t="s">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s">
+        <v>429</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s">
+        <v>161</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>430</v>
+      </c>
+      <c r="X53" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>433</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>434</v>
+      </c>
+      <c r="J54" t="s">
+        <v>435</v>
+      </c>
+      <c r="K54" t="s">
+        <v>436</v>
+      </c>
+      <c r="L54" t="s">
+        <v>437</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>438</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>439</v>
+      </c>
+      <c r="X54" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>442</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>443</v>
+      </c>
+      <c r="J55" t="s">
+        <v>444</v>
+      </c>
+      <c r="K55" t="s">
+        <v>445</v>
+      </c>
+      <c r="L55" t="s">
+        <v>446</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>439</v>
+      </c>
+      <c r="X55" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>448</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>449</v>
+      </c>
+      <c r="J56" t="s">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>451</v>
+      </c>
+      <c r="L56" t="s">
+        <v>452</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>453</v>
+      </c>
+      <c r="O56" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>454</v>
+      </c>
+      <c r="X56" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>457</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J57" t="s">
+        <v>459</v>
+      </c>
+      <c r="K57" t="s">
+        <v>460</v>
+      </c>
+      <c r="L57" t="s">
+        <v>461</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>462</v>
+      </c>
+      <c r="X57" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
+        <v>459</v>
+      </c>
+      <c r="K58" t="s">
+        <v>467</v>
+      </c>
+      <c r="L58" t="s">
+        <v>468</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>469</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>462</v>
+      </c>
+      <c r="X58" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s">
+        <v>474</v>
+      </c>
+      <c r="L59" t="s">
+        <v>475</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>476</v>
+      </c>
+      <c r="X59" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>479</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>480</v>
+      </c>
+      <c r="J60" t="s">
+        <v>481</v>
+      </c>
+      <c r="K60" t="s">
+        <v>482</v>
+      </c>
+      <c r="L60" t="s">
+        <v>483</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>484</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>485</v>
+      </c>
+      <c r="X60" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>488</v>
+      </c>
+      <c r="J61" t="s">
+        <v>489</v>
+      </c>
+      <c r="K61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>484</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>485</v>
+      </c>
+      <c r="X61" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>494</v>
+      </c>
+      <c r="J62" t="s">
+        <v>495</v>
+      </c>
+      <c r="K62" t="s">
+        <v>496</v>
+      </c>
+      <c r="L62" t="s">
+        <v>497</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>498</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>499</v>
+      </c>
+      <c r="X62" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>502</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>503</v>
+      </c>
+      <c r="J63" t="s">
+        <v>495</v>
+      </c>
+      <c r="K63" t="s">
+        <v>504</v>
+      </c>
+      <c r="L63" t="s">
+        <v>505</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O63" t="s">
+        <v>67</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>499</v>
+      </c>
+      <c r="X63" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>508</v>
+      </c>
+      <c r="J64" t="s">
+        <v>509</v>
+      </c>
+      <c r="K64" t="s">
+        <v>510</v>
+      </c>
+      <c r="L64" t="s">
+        <v>511</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>498</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>512</v>
+      </c>
+      <c r="X64" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>515</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>516</v>
+      </c>
+      <c r="J65" t="s">
+        <v>517</v>
+      </c>
+      <c r="K65" t="s">
+        <v>518</v>
+      </c>
+      <c r="L65" t="s">
+        <v>519</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>520</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>521</v>
+      </c>
+      <c r="X65" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>524</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>525</v>
+      </c>
+      <c r="J66" t="s">
+        <v>526</v>
+      </c>
+      <c r="K66" t="s">
+        <v>527</v>
+      </c>
+      <c r="L66" t="s">
+        <v>528</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>529</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>532</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>533</v>
+      </c>
+      <c r="J67" t="s">
+        <v>534</v>
+      </c>
+      <c r="K67" t="s">
+        <v>535</v>
+      </c>
+      <c r="L67" t="s">
+        <v>536</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>537</v>
+      </c>
+      <c r="O67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>529</v>
+      </c>
+      <c r="X67" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>539</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>540</v>
+      </c>
+      <c r="J68" t="s">
+        <v>541</v>
+      </c>
+      <c r="K68" t="s">
+        <v>542</v>
+      </c>
+      <c r="L68" t="s">
+        <v>543</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>544</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>546</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>547</v>
+      </c>
+      <c r="J69" t="s">
+        <v>548</v>
+      </c>
+      <c r="K69" t="s">
+        <v>549</v>
+      </c>
+      <c r="L69" t="s">
+        <v>550</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>544</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>552</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>553</v>
+      </c>
+      <c r="J70" t="s">
+        <v>554</v>
+      </c>
+      <c r="K70" t="s">
+        <v>555</v>
+      </c>
+      <c r="L70" t="s">
+        <v>556</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>544</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>557</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>558</v>
+      </c>
+      <c r="J71" t="s">
+        <v>559</v>
+      </c>
+      <c r="K71" t="s">
+        <v>560</v>
+      </c>
+      <c r="L71" t="s">
+        <v>561</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>562</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>563</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>564</v>
+      </c>
+      <c r="J72" t="s">
+        <v>565</v>
+      </c>
+      <c r="K72" t="s">
+        <v>566</v>
+      </c>
+      <c r="L72" t="s">
+        <v>567</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>568</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>570</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>571</v>
+      </c>
+      <c r="J73" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" t="s">
+        <v>573</v>
+      </c>
+      <c r="L73" t="s">
+        <v>574</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>568</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>575</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>576</v>
+      </c>
+      <c r="J74" t="s">
+        <v>577</v>
+      </c>
+      <c r="K74" t="s">
+        <v>578</v>
+      </c>
+      <c r="L74" t="s">
+        <v>579</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>580</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>582</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>583</v>
+      </c>
+      <c r="J75" t="s">
+        <v>584</v>
+      </c>
+      <c r="K75" t="s">
+        <v>585</v>
+      </c>
+      <c r="L75" t="s">
+        <v>586</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>580</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>588</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>589</v>
+      </c>
+      <c r="J76" t="s">
+        <v>590</v>
+      </c>
+      <c r="K76" t="s">
+        <v>591</v>
+      </c>
+      <c r="L76" t="s">
+        <v>592</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>580</v>
+      </c>
+      <c r="O76" t="s">
+        <v>67</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>594</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>595</v>
+      </c>
+      <c r="J77" t="s">
+        <v>596</v>
+      </c>
+      <c r="K77" t="s">
+        <v>597</v>
+      </c>
+      <c r="L77" t="s">
+        <v>598</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>599</v>
+      </c>
+      <c r="O77" t="s">
+        <v>67</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>600</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>601</v>
+      </c>
+      <c r="J78" t="s">
+        <v>602</v>
+      </c>
+      <c r="K78" t="s">
+        <v>603</v>
+      </c>
+      <c r="L78" t="s">
+        <v>604</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>599</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>61614</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>606</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>607</v>
+      </c>
+      <c r="J79" t="s">
+        <v>608</v>
+      </c>
+      <c r="K79" t="s">
+        <v>609</v>
+      </c>
+      <c r="L79" t="s">
+        <v>610</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>611</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>610</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_689.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_689.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="690">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>STEPHEN B</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>mimi_in_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r555702063-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>KDuong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r537749624-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>We stayed here for two different occasions within two weeks.  The hotel is right next to PGBT toll way and next to the hospital.  The room is spacious with a pull-out sofa bed.  There are two small coffee tables.  The work desk and chair with sliding glass panel credenza separate the sofa area from the bed area.  The TV can be viewed from the sofa or bed with its swivel base. There are mini fridge, microwave, ice bucket, and coffee maker by the entrance.  The bathroom and toilet are in two separate rooms with their own sinks.  Inside the closet are board, iron, and a chest with extra blankets.  The sink in the shower room has plenty of counter space with shelves underneath to store extra towels and hair dryer.  Wifi is free in the hotel and room.  Ethernet cable is provided on the desk.  There is a small bar in the lobby that opens from 5 to 10 PM.  There is a laundry room with two pairs of washer and dryer.  There is also a pool in the back.  The lobby also has a small convenience store.  Breakfast is good with plenty of choices including, oatmeal with toppings, bacon, eggs, harsh brown, toasts, bagels, muffins, scones, waffles, fruits, yogurts, milk, juices.  The hot items rotate daily.  If you are sensitive to noise, get the room on the front side of the hotel so you won’t hear the noise from...We stayed here for two different occasions within two weeks.  The hotel is right next to PGBT toll way and next to the hospital.  The room is spacious with a pull-out sofa bed.  There are two small coffee tables.  The work desk and chair with sliding glass panel credenza separate the sofa area from the bed area.  The TV can be viewed from the sofa or bed with its swivel base. There are mini fridge, microwave, ice bucket, and coffee maker by the entrance.  The bathroom and toilet are in two separate rooms with their own sinks.  Inside the closet are board, iron, and a chest with extra blankets.  The sink in the shower room has plenty of counter space with shelves underneath to store extra towels and hair dryer.  Wifi is free in the hotel and room.  Ethernet cable is provided on the desk.  There is a small bar in the lobby that opens from 5 to 10 PM.  There is a laundry room with two pairs of washer and dryer.  There is also a pool in the back.  The lobby also has a small convenience store.  Breakfast is good with plenty of choices including, oatmeal with toppings, bacon, eggs, harsh brown, toasts, bagels, muffins, scones, waffles, fruits, yogurts, milk, juices.  The hot items rotate daily.  If you are sensitive to noise, get the room on the front side of the hotel so you won’t hear the noise from the freeway.  The staff is excellent.  We called to request extra comforter and cover.  Within minutes, they are delivered to our door by the manager.  It is a nice clean place to stay.More</t>
   </si>
   <si>
+    <t>509Martin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r497957780-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>We spent 4 nights here on a business trip. As a location with proximity to business it was excellent - walkable but as a location for anywhere else it was a nightmare. You definitively need a car (you will have a long walk to get to anywhere) and on the basis that this has no restaurant this proves quite problematic if you don't have any vehicle. We arrived on a Sunday night and even the bar was closed. We'd spent a fortune on a taxi from the airport, we were tired and disorientated by the time shift and starving. All that was on offer was a list of takeout delivery joints - we gave up after 20 minutes trying to order and went to bed!!!. Breakfast was ok - waffles, pastries, cereals, and a limited hot plate (scambled eggs, turkey burgers, turkey bacon and potatoes) but it got boring after 4 days - I was craving a range of fresh fruit!! the rooms were ok with separate shower and loo and a big screen tv. There was also a separate desk and seating area behind a glass screen and there was a good coffee machine (although no fresh milk. There was an outside pool and a gym - I didn't use them,. The bar was fine and the barmen was a bit of a character - the rest of the staff were friendly enough (apart from the unfriendly breakfast monitors!!!)...We spent 4 nights here on a business trip. As a location with proximity to business it was excellent - walkable but as a location for anywhere else it was a nightmare. You definitively need a car (you will have a long walk to get to anywhere) and on the basis that this has no restaurant this proves quite problematic if you don't have any vehicle. We arrived on a Sunday night and even the bar was closed. We'd spent a fortune on a taxi from the airport, we were tired and disorientated by the time shift and starving. All that was on offer was a list of takeout delivery joints - we gave up after 20 minutes trying to order and went to bed!!!. Breakfast was ok - waffles, pastries, cereals, and a limited hot plate (scambled eggs, turkey burgers, turkey bacon and potatoes) but it got boring after 4 days - I was craving a range of fresh fruit!! the rooms were ok with separate shower and loo and a big screen tv. There was also a separate desk and seating area behind a glass screen and there was a good coffee machine (although no fresh milk. There was an outside pool and a gym - I didn't use them,. The bar was fine and the barmen was a bit of a character - the rest of the staff were friendly enough (apart from the unfriendly breakfast monitors!!!) but overall it was very corporate and the facilities were limited. The hotel backs onto the George Bush turnpike and it is loud. It is fine for what it is but I would prefer somewhere with more character and near something going on. by the way a Uber taxi cost us a lot less on the way back to the airportMore</t>
   </si>
   <si>
+    <t>jbryanjr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r497544816-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>Stayed here recently for two nights. We were warmly greeted offered any help they could. After a long day traveling it was nice to be welcomed. Rooms were clean, modern and comfortable. Make sure you ask for a room in front as the rooms in back are right against the Thruway. The included breakfast buffet had a good offering of fruit, cereal and eggs with sausage or bacon.  All was warm and plentiful. That's all I could ask for. We asked for a steak restaurant recommendation.  They told us two places.  We chose the wrong one. in the evening they have a bar and Billie the bartender was gregarious and talkative as a good bartender should be. Just a basic business hotel but comfortable and welcoming. More</t>
   </si>
   <si>
+    <t>Julie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r493732505-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>This hotel was awesome.  The front desk staff were polite and helpful and had smiles on their faces.  The room was clean and large enough for 3 adults without climbing over each other.  The toilet was separate from the shower which is genius!  The breakfast was really good.  It had both hot and cold food and tasted really good.   I was very impressed and if Im put this way again, I would definitley stay here again.</t>
   </si>
   <si>
+    <t>MistiATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r484516882-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Eunice B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r469390624-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>As a seasoned hotelier of over 28 years this has been THE BEST EVER vacation that my family and I have had hands down.  I am always THAT guest that will find something wrong in a room - we had 3 rooms and they were ALL perfect. The Team Members at this property from pre-arrival Randy G. Front Office Manager, Front Desk to Housekeeping, the Breakfast Team and to The BEST Bartender were ALL Super Awesome.Pamela was able to get our rooms on the same floor for an early arrival - she always had great advice on where to go and what to do. Especially for this mother of the bride that didn't have a dress (you saved me Pamela). Kalika was also AWESOME, exceptionally helpful and also gave great advice and directions - always with a smile. I think its Robin (forgive me) she worked some crazy shifts but was always smiling, engaging and super friendly.This entire Team was engaging, helpful and genuinely willing to help expecting nothing in return except to see you smile. I say thank you, thank you and thank you all again.Can't wait for our next trip to Dallas we will be back!!More</t>
   </si>
   <si>
+    <t>sweetsista100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r466960016-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>Top notch Marriott property. Right beside the Methodist Hospital and easy access to the freeways. Plenty of food and shopping less than 5 minutes. Had a great experience with maintenance and it was because of something we did to the toilet. Came up right away. I didn't see valet parking available but all of the parking lot is near the front door, with a grand overhang which was appreciated since it rained 3 of the 5 days we were there. Excellent breakfast. Unbelievably clean and tasty. My teenage son loved the biscuits and gravy. I loved the gym, up-to-date equipment.More</t>
   </si>
   <si>
+    <t>kpummill2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r457357724-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Fanchao Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r451123600-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>270judys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r449268299-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>599allank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r441224462-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>This hotel looks like its a rather new build, rooms are very comfortable and large.  A large television centrally situated to accommodate the sleeping area and the sitting area.  The Bed room is separated in 2 locations, one for the shower and sink and the second with the toilet and small sink.  There is a small bar area with microwave, sink and mini refrigerator.  The staff located at the front desk was very helpful and always greeting people as they leave and enter the hotel.</t>
   </si>
   <si>
+    <t>Jacob P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r440773088-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t>I stayed at this Springville Suites... Very nice rooms and friendly staff.  My issues with this hotel happened after I flew back home to find my room had been billed to my "incidentals" card not the companies card who was putting me up.  AMX, who paid for the hotel immediately called the hotel and resolved the issue, or so I thought.  Over a month after my stay I see a rogue charge once again on my "incidentals" credit card.  I've now left two phone messages with the General Manager with no call back.  I'm extremely frustrated with the lack of response.  In talking with my contact at AMX, this is not the first issue they have had with this hotel.  If you are a B2B customer... my advice, steer clear!!!More</t>
   </si>
   <si>
+    <t>wilkinf12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r430803067-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>I travel to Dallas at least twice a month, and I love it here. Lindsey, Amanda, Eda, Pam, actually everyone there is amazing. Very clean, very friendly. Thank you for making it a little easier to be away from my family.</t>
   </si>
   <si>
+    <t>Westtexasbest C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r428482185-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>I'm come to the hotel once a month. To come vist my Family. Staff is great, the young lady who checked us in remembered my name wow that made me feel great. The only thing that I didn't like this stay is that I seen a little girl behind the bar. When I ask who she was they told me the bartenders daughter. I never knew that a child could be behind a bar while it's open. I'm still in shock about this one. But over all it was a great stayMore</t>
   </si>
   <si>
+    <t>JaPorsha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r428267024-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>My second time in Dallas and this hotel will be one of my favorites for future stays! The rooms are very clean and modern. The glass shower was hot and didn't disappoint after a long day at the State Fair. The hotel bar happy hour was an excellent touch! Amanda took care of my guest and I like family! Friendly atmosphere and the hotel smells devine! I will definitely be back!!!! More</t>
   </si>
   <si>
+    <t>GSRDPM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r428118230-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -522,6 +576,9 @@
     <t>Hard to think of another property that gives you a better bang for the buck.   Beautiful  decor throughout - from the outdoor seating lounge, lobby area and the rooms - all modern and inviting. A full service bar in this type of property is a surprise. A luggage cart is available for those who may be raveling with a lot of bags. The breakfast was excellent, constantly maintained and had a lot of variety. The room design is awesome.  Having the bathroom separated into two separate areas with bath.shower and a full vanity in one section and a small sink and toilet in the other (each separated from the bedroom with sliding doors) is brilliant and greatly helps families get ready more efficiently.  The separate, nicely sized sitting area with a spacious desk was appreciated as well. Very smart room design! Beds were super comfy and the property was quiet at night in spite of being located next to the expressway.More</t>
   </si>
   <si>
+    <t>shelia r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r406312873-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -543,6 +600,9 @@
     <t>Great place to stay/ clean/ posh/ comfortable/ great suites/ wonderful hotel staff/ best breakfast of all chains visited so far...great job, Mariott!  Loved the suites, had a toilet room and a separate vanity and bath.  Great for 4 people.  Conveniently located.Easy access to George Bush Turnpike.  Great Beds.More</t>
   </si>
   <si>
+    <t>Weeklytravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r405285859-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -561,6 +621,9 @@
     <t>Just exactly what we needed for a weekend trip.  Arrived very late and Mary was on duty.  Could not have been more outgoing, understanding and empathetic.  For an exhausted traveller she was just exactly what was needed to end a lousy travel day on such a positive note.  The hotel room was clean and comfortable, breakfast area was well stocked and tasty.  All in all a very nice stay.More</t>
   </si>
   <si>
+    <t>Robert T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r398813916-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -588,6 +651,9 @@
     <t>Rooms are clean and well laid out. The exercise room is not great but it is bright and serviceable for travelers. The hotel staff is friendly and warm. The location offers excellent access to Plano, Richardson, the Turnpike and NE Suburbs of Dallas!More</t>
   </si>
   <si>
+    <t>Christinevee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r384092488-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -609,6 +675,9 @@
     <t>the staff was most courteous and the lobby and dining areas very clean and bright. The breakfast is one of the BEST we have ever had in a hotel! (Nutella for croissants) The bed was fabulously comfortable and haven't slept that well even at home. It was plush and heavenly. I am usually difficult to please when I stay at hotels. The price is very affordable for the king's breakfast and comfort!More</t>
   </si>
   <si>
+    <t>Amy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r377897632-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -630,6 +699,9 @@
     <t>Chose this hotel for a recent weekend trip due to its suburban location and low rates for suites.  The hotel has a very impressive lobby area; very contemporary and welcoming.  Overall the hotel was clean and very nicely appointed.  The suite (2 queen bed) was spacious and well decorated.   FYI - The decor is NOT toddler friendly!  Put up the breakables before they run a muck.  Overall I would recommend this hotel but, there were a few quirks that you should be aware of.  1.  The fold out bed option is NOT pleasant.  The bed is VERY uncomfortable and there is no bedding provided in room.  When I called the front desk for bedding they said I had to come down and get it.  When I arrived the clerk I had spoken to moments before did not have it ready.  He went to the laundry area and brought me 6 flat sheets and 1 pillow.  He said that was all they had.  So, leave the fold out option for a roomie you don't like much.  2.  The toilet room lock in our room didn't work.  It was improperly installed so there was no way it could ever have functioned.  The doors on the toilet and bath rooms are sliding doors with no latch so having to hold the door shut was inconvenient.  3.  They are stingy with the towels.  There were only two towels in our room when we arrived....Chose this hotel for a recent weekend trip due to its suburban location and low rates for suites.  The hotel has a very impressive lobby area; very contemporary and welcoming.  Overall the hotel was clean and very nicely appointed.  The suite (2 queen bed) was spacious and well decorated.   FYI - The decor is NOT toddler friendly!  Put up the breakables before they run a muck.  Overall I would recommend this hotel but, there were a few quirks that you should be aware of.  1.  The fold out bed option is NOT pleasant.  The bed is VERY uncomfortable and there is no bedding provided in room.  When I called the front desk for bedding they said I had to come down and get it.  When I arrived the clerk I had spoken to moments before did not have it ready.  He went to the laundry area and brought me 6 flat sheets and 1 pillow.  He said that was all they had.  So, leave the fold out option for a roomie you don't like much.  2.  The toilet room lock in our room didn't work.  It was improperly installed so there was no way it could ever have functioned.  The doors on the toilet and bath rooms are sliding doors with no latch so having to hold the door shut was inconvenient.  3.  They are stingy with the towels.  There were only two towels in our room when we arrived.  We called for more and were told to come to the front desk again.  Being on the third floor this was an annoying request.  They seemed reluctant to give us very many even tho we were 3 adults traveling with children who of course wanted to go swimming.  We finally begged enough out of them so that the parents had to share with the kids but at least there was one per adult.  3.  Speaking of the pool...that is another thing.  There was only one towel on the cart by the pool and it was like a  hand towel.  It barely covered my two year old.  The pool itself was fairly well maintained and clean.  The "whirlpool/hot tub" was a joke.  Watch that first step, its a doozy!  It is not meant for those of us with short legs.  It also didn't work.  It was slightly warmer than the pool but the jets did not function.  Now let me state again that overall I was pretty happy with my hotel experience.  At no point did it appear dirty or unsafe.  The staff were, for the most part, very friendly.  Although this was a holiday weekend they did not seem very busy.  The neighborhood is nice and quiet, with the exception of the highway traffic noise nearby.  There is also a gas station nearby for easy refueling.  Give this place a shot if you are in the area.  it may have its quirks but it still rates higher than most other "big city" motels.  FYI - You get the best rates thru the Marriott website.More</t>
   </si>
   <si>
+    <t>kimberlywilliams2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r369535823-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -657,6 +729,9 @@
     <t>The onsite staff was helpful, however, as a training coordinator it was difficult to get responses via email. And they completely ignored any questions about rewards, wouldn't even acknowledge the repeated questions.More</t>
   </si>
   <si>
+    <t>Gailken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r358423468-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -672,6 +747,9 @@
     <t xml:space="preserve">Room was very nice and staff were very professional and eager to help with anything we needed. I had left my diamond necklace by accident. I called the hotel and the lady at the desk called housekeeping and thank goodness they had it still. Of course I thanked them over and over because the necklace was a present from my husband for our 20th anniversary. I am so grateful there are still honest people in the world. Would stay here again! </t>
   </si>
   <si>
+    <t>Emily W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r344655050-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -699,6 +777,9 @@
     <t>This hotel is very clean and quiet. The staff is wonderful too! Me and my family stayed here while my dad had surgery at the hospital down the street. The room was nice and big and wonderfully decorated.  Beds were comfy. I didn't like the pillows but that is with any hotel. Breakfast in the morning is good.  Never heard a sound. More</t>
   </si>
   <si>
+    <t>NDakGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r344645292-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -714,6 +795,9 @@
     <t>We were traveling with our daughter and 2 children and needed a motel with adjoining rooms.   We picked this place for that reason.   We were so happy with the set up.  They gave us a room at the end of the hall which was nice with 2 kids.   The breakfast is a typical one for Marriott's.   The beds are very comfortable and the place is clean.   We felt they were a little stingy with towels and for some reason we didn't get full rolls of bath tissue.   Our biggest disappointment was how far it was to go for eating places.More</t>
   </si>
   <si>
+    <t>Ptorresmartos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r331067468-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -741,6 +825,9 @@
     <t>Good value for money. The staff is young and always willing to help. The rooms are big, well equipped and comfortable. Gym is basic but its well maintained and all machines work.No dinner is served but you can enjoy the typical Texas food a few miles away.Good location for many tech companies in the surroundings.More</t>
   </si>
   <si>
+    <t>AaronBHudson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r326524790-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -768,6 +855,9 @@
     <t>Pretty nice hotel for the money. They have a small bar that serves basic liquor and beer in the evening. This is a nice add if you want a couple quick drinks before going to bed.Hot breakfast is above average for a free breakfast. Usually has some scrambled eggs and various meats/potato combinations.Better than what you would get at a Fairfield.They have an outdoor patio with gas fire which can be fun to hang out in on cooler fall nights.Only thing that irritates me is you have to stick your room key in a slot in the room for the power to work. This makes charging devices and keeping the room cool while you are out difficult. Saves power for the hotel, and in theory the environment, but it is a bit of a hassle especially when you lock yourself out of the room thinking you left your key in your wallet when it is really in the wall power slot.Overall I would recommend the place.More</t>
   </si>
   <si>
+    <t>Beachmaster59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r326134035-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -786,6 +876,9 @@
     <t>The rooms are very clean and layed out with a work area and couch. Separate shower and bathroom would be nice for couples traveling but didn't matter much for me. Plenty of outlets to charge your electronics. Free internet and breakfast was nice. Only negative was a lack of restaurants in walking distance but there are plenty within a 5 minute drive. Small bar area and across the street access to some nice areas to go for a run. Refrigerator in the room is convenient. I'll stay here again.More</t>
   </si>
   <si>
+    <t>PalisadesGirlM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r292810635-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -813,6 +906,9 @@
     <t>We were in town for a basketball tournament &amp; stayed with our 5 children for 4 nights. There were lots of other basketball players at the hotel too &amp; the staff and hotel were very accommodating to everyone! Zalen checked us in &amp; was super friendly &amp; professional! I loved the set up of the Queen suite which gave us tons of room &amp; comfortably slept 4-5 guests. Breakfast was good and there was lots of selections. It would've been nice to have extended the breakfast until 10am just because there were lots of guests in the breakfast area and it was hard to be done eating by 9am. Everything seemed very fresh and I loved the healthy options!Our kids definitely loved the outdoor pool! Overall a great value and a clean, modern hotel in a nice area of Plano/Richardson. We hope to be back again next year! Only 2 complaints: The maids came around really early in the morning and walked into my room in without knocking! This was at 9:30am &amp; really startled me. The second concern was the trash was overflowing from the outside trash can at the front of the hotel and it made a really bad first impression as we pulled up. It was overflowing again as we checked out on Sunday afternoon. More</t>
   </si>
   <si>
+    <t>Ascepti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r284504455-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -832,6 +928,9 @@
   </si>
   <si>
     <t>Nice, clean, modern. Nice pool and lounge area right off George Bush. The staff was friendly. It was a very short stay but this is a place I would recommend to friends and family who may visit. The hotel appears to be new. They offer an area to purchase items and bar and restaurant.More</t>
+  </si>
+  <si>
+    <t>nowincolorado</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r280499554-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -867,6 +966,9 @@
 However, the bathroom is divided into 2 rooms - both have sliding doors with frosted glass.  I tend to not like sliding doors in hotel rooms because they are not quiet when you need to close the door to use the bathroom in the middle of the night.  The fan turned on automatically with the light so there was no way of trying be quiet.  Both doors have frosted glass &amp; yes, it does light up the room at night when you go to the bathroom.  (I took...The staff here are outstanding, friendly and eager to please.  My room was large, very clean, and super Quiet!  I did have a room that faced away from the Highway.  In fact, it was so super quiet that I had trouble sleeping due to it being too quiet so I turned the TV on low for a little bit of noise.  It is hard to find a hotel room that is so very extremely quiet.  It was very quiet even though it was sold out for the night I was there.I read some reviews about the layout of the room so I wasn't totally surprised by my room's bathroom set up.  My room was large, it had a kitchenette area with frig &amp; micro.  There was a living room area with sofa and a desk area separating the living room from the bedroom.  It was nice, large and relaxing.  (see photos)However, the bathroom is divided into 2 rooms - both have sliding doors with frosted glass.  I tend to not like sliding doors in hotel rooms because they are not quiet when you need to close the door to use the bathroom in the middle of the night.  The fan turned on automatically with the light so there was no way of trying be quiet.  Both doors have frosted glass &amp; yes, it does light up the room at night when you go to the bathroom.  (I took a photo to show how much light lit up the bed with both bathroom lights on)My photos show the lay out of the bathrooms.  Toilet &amp; sink in the door on right.  The door on left is shower (no tub) with a full sink area directly across from it - you can see this sink area reflecting off the closet door's full length mirror in this photo.  There is a light behind the circle mirror which is dim &amp; good to use at night but the toilet isn't in this bathroom.  I had no problems with my room at all.  The bathroom set up did not bother me but I could see how the bright lights through the frosted glass doors &amp; fan/light set up could disturb family members in your room when using the bathroom at night.I printed a map before hand and did not have any trouble getting to the hotel.  Even though it's address is E George Bush Turnpike - I wanted to avoid the tolls and took Campbell off Hwy 75 to just south of the hotel then Shiloh Rd north.  The main entrance is on SHILOH ROAD (not E George Bush Turnpike).  Campbell road was scenic but I took Renner road to Hwy 75 in the morning &amp; would recommend that route -  Renner &amp; Shiloh Road.The only thing I did not like about this hotel was the breakfast!!  The scrambled eggs were cold - yuck.  The pre-made oatmeal had so much extra water added to it - it was like soup with broth - terrible!  The breads were hard/stale.  They did have fresh bananas and yogurt.  All the other foods were disappointing (especially the oatmeal).Great hotel!  Nice Staff!  Bad breakfast.   Would I stay here again?  Absolutely!  Loved my very clean, large, quiet room.  And I do like bananas and yogurt - so at least I can eat some food at breakfast.More</t>
   </si>
   <si>
+    <t>NMandBeyond</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r276597639-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -891,6 +993,9 @@
     <t>The staff of this hotel were top notch and the property definitely exceeded expectations as well.  The room layout was fantastic with the toilet and a small sink being in a separate room from the bath/shower area which also contains a sink.  When traveling many times the bathroom becomes a time crunch issue.  This is not an issue in this hotel at all.  The public areas were clean and the breakfast was hot and offered a good selection of items.  The bed was comfortable and clean.  I have stayed in a few other SpringHill suite properties and I can say with confidence that this property outshines all the others no question.More</t>
   </si>
   <si>
+    <t>travelorfromtx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r272219217-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1020,9 @@
     <t>Love the room layout. There is a separate area with a door for the shower area and a separate area for the toilet. The breakfast was typical for a free hotel breakfast. The facility was clean, sleek and modern. This was our first Springhill Suite for us to stay in-it will definitely not be our last Springhill. More</t>
   </si>
   <si>
+    <t>shanamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r268895501-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1044,9 @@
     <t>We were in town for just a one night basketball tournament.  We were able to check in at 12 as soon as we got to Dallas, and even though they were in the middle of cleaning the front desk ladies asked the cleaning crew if they could go ahead and get two rooms clean so the kids could rest before their game. The room was very nice, it was different in that your electricity is controlled by inserting your room key in a box on the wall, and the shower and toilet were in separate rooms, which as a plus. I wish there was 2nd TV as the main one was in the living room area and if you were in the bed furthest away you couldn't see much. Breakfast was included, but it wasn't a big selection, sausage, oatmeal (with all the fixings) cereal, potatoes, bagels, toast, eggs, waffles and juice. I guess I miss the places were you can order other items.  Hotels that have cook-to-order kitchen.  They have a bar area open from 5-11 also for the adults. With a nice lounging area. The area was real nice, very quiet, but close the highway and other fast food and restaurants.  I definitely would stay here again.More</t>
   </si>
   <si>
+    <t>Nils J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r259228442-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1074,9 @@
     <t>Immaculate, airy, and welcoming are other appropriate descriptors. Affordably priced, too. Breakfast was pretty standard fare, but the service staff was very friendly and even offered to refill my juice! Never had that happen before. Very satisfying, indeed. More</t>
   </si>
   <si>
+    <t>jaspurcat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r258301998-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1101,9 @@
     <t>Everything from front desk staff to room was super nice. Breakfast was better than average fair - fruit not great but it was winter. The room is outstanding - fresh, clean, trendy. The front desk staff was great and the young bartender was friendly. Gym was ok - not great but served the purpose. I will definitely keep it on my list of hotels to go back to when in the Dallas area.More</t>
   </si>
   <si>
+    <t>biblthmp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r257771686-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1131,9 @@
     <t>Spent 4 nights here, for a business trip in mid-February. The stay was very enjoyable. The bathrooms in the room was separated, the toilet in one room, the shower in the other.Pros: The breakfast was wonderful, the room was nice and large.Cons: The thermostat didn't seem to be working properly, I bumped it up to 78, and it didn't feel much warmer than when it was set to 68.More</t>
   </si>
   <si>
+    <t>MonBon7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r250962778-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1161,9 @@
     <t>It would be hard to find any other hotel with such gracious, helpful and cheerful staff.  The rooms are large and clean with a contemporary flair.  There is a microwave and refrigerator.  Also, there is a nice sitting area and desk.  the Wifi worked well.  The breakfast served each AM was very good.  There is a small bar in the lobby that opens from 5:00 PM - 11:00 PM.  The lobby is very open and has plenty of seating.  There is also a convenient area supplied with everything from wine to batteries for your purchase.  The only reason(s) I didn't give 5 stars:  1) The lighting above the vanity is quite dim.  2)  The shower pressure is low.  3)  The toilet is located in the middle of the room and I shared the room with a co-worker, which I didn't know very well.  It was a bit uncomfortable.  The commode area has a tiny sink, which has a tendency to splash onto the ground.  My co-worker used this area to apply her makeup, etc.  A small, 3-tier shelf would've been very handy for her toiletries.  4) There are no places in walking proximity to dine.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r249699936-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1188,9 @@
     <t>Stayed here for business.  Very clean and comfortable.  Room was spacious.  Refrig and microwave in room.  Desk work area was functional and can even see TV from that area.   Shower area is separate from toilet.   Could use a brighter light over sink in shower area to use mirror.  Light in the toilet room was bright but the sink there is so tiny as is the mirror, it's hard to use.   Enjoyed the up to date fitness room. All the equipment worked. There are free weight as well as a bench.  Dining and shopping close by.More</t>
   </si>
   <si>
+    <t>Dennis L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r243783274-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1218,9 @@
     <t>Very nice modern hotel with many amenities I like. The separate toilet and shower is a simple arrangement but a well received layout for a room. The mattress was very comfortable. I had to check the maker and it was Beautyrest. Great selection with the fluffy pillows and furniture to relax. The whole hotel was climate control. Some hotels have cold hallways or lobbies but this hotel had the ideal temperatures thoughout.The housekeeping was awesome with their creative folding of the towels. I thought I was on a cruise ship. The only problem I experience was that their was a small leak coming from under the shower floor. I did notify the front desk and they will have maintenance to fix it. The breakfast area was roomy along with great healthy choices. They had an outdoor patio with a fireplace that was nice. I have to come back in the summer to enjoy the outside pool, it looked refreshing.More</t>
   </si>
   <si>
+    <t>Bosox61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r238690992-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1248,9 @@
     <t>nice hotel and friendly staff and I liked that they had a small bar in the lobby too. The free breakfast was also first class. My complaints: no welcome gift as a Marriott Gold member - I was told it was for Platinum members only and more concerning is my wake up call never came. All that said I still like the hotel it's quiet room and the amenities. More</t>
   </si>
   <si>
+    <t>BeachSwan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r233855519-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1278,9 @@
     <t>Very clean rooms, comfy beds, good A/C, good sound-proofing, better breakfast than many....if the front desk staff could just step it up a bit, I would gave given this property 5 stars.  We checked in around 6:00 pm. There was only one customer in front of us and she was 1/2 done when we walked in.  Still, we waited nearly 20 minutes to be helped. This in spite of the fact that four, yes - FOUR other employees were all standing around behind the desk. Every one if them said "hello."  Most of them said, "we'll be right with you."  Yet they all continued to stand around a visit with one another. One answered the phone about half-way through our wait and proceeded to discuss a potential reservation for many months in the future.   The others just stood there visiting.  It would have been really nice to have been given some quick attention so that we could get to our room.  Our room was also not re-stocked after the previous guests checked out - no coffee or tea or condiments. Others have been unhappy with the room design, but personally, I like it.   So, just a few service annoyances here but otherwise a good stay.More</t>
   </si>
   <si>
+    <t>Robert77096</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r223522906-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1302,9 @@
     <t>Nothing new to add to the reviews of others.  The staff is great and does as well as possible with this property.  Location was great for us.  Clean, well maintained.  My complaints - like others - involve the design of the rooms.  Both bath rooms (toilet and shower) are directly across from the beds, and they have opaque doors.  So if someone turns on the light in either room, with the door closed, they are still flooding the room with light.  Also with noise since the light switch turns on a fan in both rooms.  I think this place would be great for a single traveler in a room.  5 stars for sure.  But with multiple people in the room, you lose points for the odd design choices.  Also, like others mentioned, the A/C blows directly on the closest bed.  I had to use a towel to cover more than half of the A/C vents.  Was on the 4th floor (the highest floor) facing the highway and did hear highway noise when the room was quiet.More</t>
   </si>
   <si>
+    <t>LipseyJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r212888781-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1332,9 @@
     <t>We decided to have a one night get away. We passed this hotel while we were on the way to another one. Stopped in and decided to stay. It was a beautiful hotel. I would recommend this hotel for a quick get away to all. The rooms are very pretty. Breakfast was great. Every employee we encounter was super nice.More</t>
   </si>
   <si>
+    <t>C M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r205356460-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1353,9 @@
     <t>Hospital is within a mile of Methodist Richardson Hospital. The suite was very nice with two queen beds. The doors to the shower and commode area are frosted making sharing a room awkward. The buffet was adequate and fresh. All staff was friendly, professional and very helpful. More</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r203971326-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1225,6 +1369,9 @@
   </si>
   <si>
     <t>Stayed here with my family. Very nice modern &amp; clean place.Really liked the way the bathroom was divided. Came in handy travelling with women.Large closet also came in handy with all of the luggage.Room was laid out very well.Very good breakfast.Staff was very friendly and helpful.Bed was very comfortable.I stay in Plano area once a month and usually stay at another chain. My wife said this is where we need to stay from now on.We will staying here again.</t>
+  </si>
+  <si>
+    <t>MasterTravelMan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r201862934-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -1260,6 +1407,9 @@
 Breakfast was very good with a great selection of hot and cold items on the house. My only complaint is...The hotel is in great condition and looks like a new or fairly new property. It is very nicely decorated as are many of the newer Marriott properties. Very tasteful modern decor. Large open lobby area with plenty of space to relax and spread out.I had a standard suite style room and it was very spacious. It had a generous sized desk, work area with a very comfortable desk chair and good lighting.Having a microwave and mini fridge was a nice touch. The bed was comfortable and an abundance of pillows were provided. It can get a bit noisy due to traffic noise. I would recommend a room on an upper floor and on the even number side rooms to get away from the highway side of the property.The bathroom was top notch with a huge walk in shower and high end fixtures. Supplies were top notch. The towel supply was adequate, but not overly generous. As another reviewer noted, the toilet was in a room separate from the shower and yes, there was a hook on the wall on the wall by the sink, but the hook was too small to hold a towel. So, while there was a pedestal sink in the powder room, it was not really effective without a place to hang a towel. Breakfast was very good with a great selection of hot and cold items on the house. My only complaint is the TV was a bit loud.Staff - Very nice at the front desk. The gentleman at the bar provided some great advice on nearby restaurants also.Location - Easy access, just off the highway.More</t>
   </si>
   <si>
+    <t>Zhertiam M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r200159324-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1434,9 @@
     <t>The room was very modern and I loved the layout. The seperate toilet room, and shower was great! I loved the shower with pressure spray for your back, it's so relaxing, oh not to mention the Paul Mitchell Shampoo and Conditioner.  The beds were very comfortable and the breakfast was great with many choices, for picky eaters, like myself. My only complaint was the ac rattled a bit, but I eventuality got used to it,not a big deal.More</t>
   </si>
   <si>
+    <t>Catherine D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r199998313-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +1458,9 @@
     <t>Staff was very friendly. We arrived a little before check-in time, but they got right on it and made sure our room was ready. And it was great--large and clean. It had an area roomy enough to visit with family and friends. The bed was comfortable. I've read some complaints about the air unit being noisy--I didn't find it loud but actually prefer some noise while trying to sleep so thought it was perfect. They don't have a restaurant but have a bar downstairs that is open during the evenings. We had a pleasant stay and will definitely go there again.More</t>
   </si>
   <si>
+    <t>QueenDivaT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r197720843-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1485,9 @@
     <t>We stayed here for a ball tournament.  Everything about this hotel was nice.  The location was quiet and easy to find.  We would stay here again.  Only wish was for a heated pool for swimming during the colder months.More</t>
   </si>
   <si>
+    <t>T Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r194920977-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1354,6 +1513,9 @@
   </si>
   <si>
     <t>Room designed to look modern and current, only the designers forgot it has to be functional too.  They must not have actually spent a night in the room.  It had a single hook to hang a towel in the bathroom.  The toilet was in a separate room, so no place to hang or set your towel when you take a shower if you have anything else to hang up.   Large room with two queen beds and a pull out sofa, but had other inconvenient "features" if more than one person is staying in the room.   Large glass panels in the bathroom and toilet closet doors looked neat but let a great deal of light shine through if some gets up in the middle of the night or earlier in the morning than the other occupant.  Oh, and the main light in both is hard wired to a vent fan that sounds like a small plane.  Positives are a good, friendly staff and a much better than average breakfast.  Still will not be staying here again.  More</t>
+  </si>
+  <si>
+    <t>Cab4Gam</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r194792919-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -1392,6 +1554,9 @@
 Breakfast was above average with a very nice selection of fruit, including whole strawberries, a very good selection of accoutrements for the nice...Arrived quite late after driving up from Houston. We were there for UIL State Wrestling tournament a couple of miles up the road in Garland.  There were lots of wrestlers staying in the hotel, but you would never know it! Very inviting fire pit outside the lobby, nice bar area and spacious breakfast area.Check in was smooth, room was exceptionally clean and very nice.  We were on the 4th floor so no one above.Our room face the freeway and I could hear  the traffic even though hotel is set back a bit. It was quite noisy so I would request a room across the hall next time.Cool toilet room with sink.  Shower room was great. Very roomy glass shower.Bed was very comfy. The pillows, however, were strangely small. There were 5 pillows on the bed and they were square, 16"-18" type pillows….not rectangular.  I asked for "regular" sized pillows from the front desk the next day (we were there 3 nights) and was given standard pillows. The door to the hall could use some weather stripping at the bottom as the gap allows a good deal of light in if a very dark room is important to you.Nice desk area and the free wi-fi worked very well.Fridge and microwave very handy.Breakfast was above average with a very nice selection of fruit, including whole strawberries, a very good selection of accoutrements for the nice oatmeal, eggs and bacon or sausage and a cold meat and cheese selection. I would recommend and definitely stay again if returning to the area.More</t>
   </si>
   <si>
+    <t>texasrover92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r185864924-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1584,9 @@
     <t>This hotel is one of the best hotels in the Marriott group that I have stayed in. I was not nearly expecting my room to be as nice and clean as it was. The rooms are very large, with two double beds and a pull out couch. This is great when traveling with family and gives everyone room to move. The hotel is less than two years old, so everything is really new and clean. There is a complimentary breakfast, which tasted great and had a good variety of options. There is also a bar in the lobby, which is open in the evenings. The staff have all been very helpful and friendly whenever we have had any questions. In fact, one member of our family left his cell phone at the bar and the bartender made sure that it found its way back to us. All in all, this SpringHill is a great place to stay!More</t>
   </si>
   <si>
+    <t>Carolwanderlust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r184922914-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1611,9 @@
     <t>Stayed here for two nights with my daughter while visiting friends and we both loved it very much.  It's modern, clean, very comfy beds. A wonderful, beautiful surprise after the long drive from Houston.  The best complimentary breakfast.  Hope to visit again and again.More</t>
   </si>
   <si>
+    <t>drc225</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r184915749-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1632,9 @@
     <t>Stayed one night (just) at US$118 + tax booked off Marriott website. Arrived after midnight and the lobby market food was very welcome. The salad wasn't as bad as i had anticipated. The free breakfast was a decent spread with hot eggs and sausage. I've had a lot simpler free breakfasts so this was welcome. The boarding pass printing stations worked well as did the free wifi.Everything was fine. Rooms std decent quality you get at Marriotts.  Did the job perfectly for me (I was gone about 8:30am) but i did note it seemed a bit isolated with not much obviously in walking distance. May have just missed it though.More</t>
   </si>
   <si>
+    <t>Edward C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r175584935-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1659,9 @@
     <t>This hotel is a year+ old, has the best staff, and greatest rooms. I stayed in 403. Fabulous design, excellently executed. Excellent bed. Leslie (who checked us out on the last day, was just as great as the two ladies who checked us in on our first night. I wish I could remember their names, as they had excellent hospitality skills.  We stayed two nights, while our kids played in a local soccer tournament. I wish we could have stayed here longer. I will go out of my way to return.More</t>
   </si>
   <si>
+    <t>Roman R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r174584547-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1686,9 @@
     <t>I had my second stay at this hotel when my daughter attended the Cheer Athletics Summer Camp a few weekends ago.  The hotel again exceeded my expectations.  I had stayed there last year right after they opened and everything was outstanding. This second trip was even better. With alot of time on our hands due to her being busy with camp, the hotel provided us coupons to Hawaiian Falls Water Park and assistance in finding other things to do to keep my 10 year old son an wife and I occupied.  I know that this hotel is primarily a "business traveller" stop over based on all the customers we saw at breakfast.  The rooms are awesome and designed very well.  A great place to stay!!More</t>
   </si>
   <si>
+    <t>RockinMom13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r172146218-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1707,9 @@
     <t>This hotel is within walking distance to my company office, but i need a car to get food, entertainment, etc..I recently stayed for 14 nights which is my longest stay of many with this hotel.  I have ventured out a bit and find the area to be reasonably safe. (for a single gal) During the week it is a great, quiet, professional environment.  However during the weekend it becomes filled with a very different crowd that is much louder and rude. (Not the hotels fault, just a comment)The rooms are clean, modern and new,  the air unit is poorly placed (next to the bed) it is loud and hard to maintain a consistent temperature.  I despise the fact you can't open any type of a window to get some fresh air in.  I understand safety concerns from a high floor room, but lack of fresh air is annoying!!I do LOVE that this hotel is completely non-smoking, honestly this is a huge reason why I return.  The hotel offers a pretty nice complimentary breakfast spread.  They offer an evening cash bar, but no food which is disappointing.More</t>
   </si>
   <si>
+    <t>Cheryl S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r167587082-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1737,9 @@
     <t>We recently stayed here while on our honeymoon.  We were greeted immediately when we walked in by very friendly/professional staff.  We were able to drop our trailer and motorcycle in the parking lot so that we could drive around without having to pull it around Dallas.  We stayed in a King suite and the room was very clean and the bed was comfortable.  There were even individual lights on each side of the bed for individual reading light should one person want to go to sleep and another want to stay up and read awhile.  I liked the separated bathroom so that while my husband was showering I could be in the other room getting ready.  Even though our room faced the turnpike we never heard any traffic noise.  Breakfast was really good with eggs, bacon, pastries/breads, cereal, fruit, waffles, coffee and juice.  They offer discounts for Military and AAA which we have both so the discount was nice as well.  We would definitely recommend this hotel to our family/friends.More</t>
   </si>
   <si>
+    <t>Charrisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r167568554-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1755,9 @@
     <t>This place was wonderful,greatly decorated,wonderful breakfast ,fast and easy check in and out..Very nice front desk,the only down fall of this property is the bartender,he had to be told how to make drinks,what they were and took more then 20 minutes to make 4 simple drinks and then needed to be reminded of what we had ordered to charge us for the drinks... Special note he had to be or looked  to be and acted as though he was pushing 80...The king suite was very clean and bed was comfortable with a great breakfast... Would stay again,just not order from the bar area...the receptionist was unable to tell my husband how to get the electronics to work in the gym area...More</t>
   </si>
   <si>
+    <t>Jaz M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r166795146-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1782,9 @@
     <t>This hotel was nice, wish there was a bathtub for people with small children. The rooms are kind of small for it to be a suite and the swimming pool was a tad bit small. The breakfast was great, and there were different options each day-only thing is the juice was not that great. The staff was very friendly so overall, this was not a bad hotel at all.More</t>
   </si>
   <si>
+    <t>Ohad B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r163287744-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1812,9 @@
     <t>Probably one of the warmest welcomes i have had to hotel in a while.The front desk staff were awesome.Rooms are very nice and everything works.Breakfast was nice, good variety and lots of sitting area.Pool and Gym are good.This will be my new home-away-from-home in Richardson.More</t>
   </si>
   <si>
+    <t>Hidee79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r160374341-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1839,9 @@
     <t>I stayed for 5 nights and could not have been happier from the moment I checked in. All associates were genuinely warm and helpful. No fake smiles. Very accommodating to all my tedious needs. I stayed in the standard king  room   It was clean and modern! Nice tv and the way the shower/bathroom is set up is so nice!!!Speaking of shower---WOW so cool. Awesome water pressure and it had the dual optional wall spouts that feel so great. I needed that! Breakfast was good too! And the bar was open at 5 everyday.Super nice. Chill atmosphere. Quiet. Modern. Good people. Also I got a great rate off Priceline for the 1st 2 days and the hotel extended my stay for the same price. Way cool. I'll stay there again when needed. Cheers!More</t>
   </si>
   <si>
+    <t>Inthemoment71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r160288058-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1863,9 @@
     <t>Quite new Springhill Suites with a very efficient and friendly staff.  Room has a  big shower and sink area in one room with a toilet and sink in another room. Colors in the room were lovely.  Breakfast has a large variety from which to choose.  We have stayed on two different occasions and would definitely return if in the area.More</t>
   </si>
   <si>
+    <t>Tod H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r155991854-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1686,6 +1887,9 @@
     <t>I travel enough to be a Marriott Platinum Plus, and a Hilton Diamond...that is a lot.  Suffice it to say, I've seen many Marriott and Hilton properties, and each brand has their positives and negatives, but all in all, they are fairly consistent.  A Courtyard is a Courtyard, a Garden Inn is a Garden Inn...you get the drift.  SpringHill seems to be the Marriott's revamped Hip hotel brand, and this SpringHill certainly measured up.  I was able to upgrade to a suite, and it was truly a very nice room, especially when you consider the affordable price.  Room layout is a very personal thing, but for me, the Euro-esque feel of these rooms is fantastic.  It's different enough, but not so crazy that you don't feel comfortable.  Everything else was what you would expect from a good Marriott property; Clean, comfortable, friendly.  If you are looking for a hotel in this area, this would be my first choice.More</t>
   </si>
   <si>
+    <t>ronilynn777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r153801795-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1908,9 @@
     <t>I stayed 2 nights at this property and was pleasantly surprised.  I had received a call the day before my first night telling me they had moved me to another hotel closeby because they  needed my room.  When I asked about the second night, they apologized and didnt move me. That was a little unsettling, and I didnt know what to expect.  However, once I got to the property, my experience was so pleasant. The desk clerks were exceptional; location was convenient for me; and property was spotless.  It is a fairly new property.  My room had 2 queen beds, one bath with tub/shower/vanity and a half bath with no bathing facility.  LR area has comfortable sofa, lamp, desk, free wi-fi, wide-screen TV.  There was a walk-in closet which was perfect for suitcase and hanging clothes.  Room very clean.  Free breakfast with good selection in a clean dining area.  I look forward to staying here again.More</t>
   </si>
   <si>
+    <t>ErinReisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r153652990-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1719,6 +1926,9 @@
     <t>Beautiful new hotel. Room keys are RFID, which is very convenient.  There are no restaurants within walking distance, but there are several choices within 5 miles. Workout room was great, and the breakfast included several hot items.  Asked for additional shampoo and conditioner after my workout at the front desk, and they said housekeeping would bring some down, odd that they didn't have any there. Housekeeping knocked on my door 10 min later asking if I still needed it. After I said yes, they went to get some,coming back 5 min later. Strange.</t>
   </si>
   <si>
+    <t>Gim Hoe K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r149115650-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1735,6 +1945,9 @@
   </si>
   <si>
     <t>January 2013</t>
+  </si>
+  <si>
+    <t>joepercussion</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r147886503-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -1764,6 +1977,9 @@
 Upon entry, the room was beautiful and very well laid out. The 2 queen room left plenty of space to move around, and the design of the living area made it feel like an entire new space in our suite. The room has 2 sinks, one in the main bathroom with the shower, and the other in the smaller bathroom with the toilet. This is great when traveling with family, as others can get ready for the day while someone is using the shower without...Just WOW! I wish my trip here was longer, rather than just a pass-through hotel for me. This property is nothing short of awesome. This was my first stay here, and surely won't be my last. This brand new Springhill Suites should be the model for all.The lobby, like the rest of the property is very modern. From just walking from the parking lot to the front door, I could just tell that it was going to be something special. The detail you see on the outside of the building was very tasteful. We were greeted at the desk, and promptly given a room on the 2nd floor. The agent was sure to explain all of the details of the property, as well as the "green" features of our room. This made us feel very welcome and familiar with the property. The room keys are RFID (nice touch), making entry into the room simple. Upon entry, the room was beautiful and very well laid out. The 2 queen room left plenty of space to move around, and the design of the living area made it feel like an entire new space in our suite. The room has 2 sinks, one in the main bathroom with the shower, and the other in the smaller bathroom with the toilet. This is great when traveling with family, as others can get ready for the day while someone is using the shower without a problem, all while giving the entire family privacy while using the bathroom. Another touch I really liked was the locks on the sliding bathroom doors. I know it seems weird, but have staying in many newer hotels with these sliding doors, not many have the locks due to the design. The shower has some extra jets in the wall, making for a very luxurious shower. I really enjoyed this extra touch of luxury that is usually only seen in very upscale hotels. I have stayed in many full service hotels that don't even have this. To find it in a smaller hotel like this was extra cool! The bath amenities were also very nice.When it comes to sleep quality, these are probably some of the best mattresses I have ever slept on in a Springhill! There was no noise from outside. Granted, my room was on the opposite side of the building from the Turnpike, it seemed like a very quiet road at night, so it shouldn't be an issue for those staying on the backside of the building. For those with issues with noise A/C units, the unit in my room was whisper quiet, even when turning on and off! That is something you don't see with most window unit style units. My room was also right across from the elevator, and I wouldn't have even noticed since they are behind a wall in a way, blocking any noise, if any.I didn't use any of the amenities in the hotel such as the pool, bar, fitness room, or business center, but all looked extremely nice. The lobby looked great for grabbing an evening drink and hanging in the lobby, or even heading out to the fire pit. Overall, this is a great new property for this area. Can't wait to come back!More</t>
   </si>
   <si>
+    <t>Tim Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r146876205-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1995,9 @@
     <t>Sadly, I only stayed one night in this beautiful hotel. The rooms were stunning. The beds were clean and very comfortable.The staff extremely friendly. The free breakfast was better than most. The hotel is very modern and very "Green". If you are in the area there is no better place to stay especially in this price range!</t>
   </si>
   <si>
+    <t>Jack Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r141198128-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1798,6 +2017,9 @@
   </si>
   <si>
     <t>I stayed at this hotel for one night in September 2012. This is perhaps the best Springhill Suites I have ever stayed.The hotel was brand new and very clean. The lobby area is very modern and stylish. The rooms have very good layout, using a glass wall separating the work area and the sleeping area, which makes the room feel bright and open (most Springhill suites use a solid wooden wall between the two areas, which make the room feeling small). The shower area and the toilet are separate. The king size bed feel nice and comfortable.You need to use a room key to active the electricity in the room. This is very common for hotels in Asia, but this is the first Marriott property in the US that I have seen having this feature. Breakfast was very good.Overall I am very happy with my stay.More</t>
+  </si>
+  <si>
+    <t>CassieRDH</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r140695350-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -1822,6 +2044,9 @@
 Breakfast was decent for the most part.  The potatoes had a little too much garlic for my taste, and maybe because we ate so early they didn't seem quite done.  There is plenty to choose from for breakfast so I was just fine without the potatoes.  Coffee was adequate, not wonderful but I have definately had worse.
 We used the wireless internet in our rooms and experienced no problems with it.  Some hotels have week signals that drive me bonkers, but like I said, no issues with theres.  The room was very roomy and very clean.  My only complaint about the room was the skimpy amount of towel.  One washcloth and 2 towels for 2 adults.  We will definately be requesting extra towels when we return. 
 This is...My husband and I just stayed at this hotel this past weekend, for one night.  We are returning in 2 weeks with our grown children.  We really liked the hotel, it was clean and has lovely decor.   The front desk clerk was wonderful.  We had originally booked a 2 queen room because we thought our kids were coming with us this past weekend.  She graciously moved us to a king suite when I explained to her that it would only be my hubby and I after all.  The computer gave her some issues in doing it but she was persistent and finally got it to change the reservation.  We were very grateful.Breakfast was decent for the most part.  The potatoes had a little too much garlic for my taste, and maybe because we ate so early they didn't seem quite done.  There is plenty to choose from for breakfast so I was just fine without the potatoes.  Coffee was adequate, not wonderful but I have definately had worse.We used the wireless internet in our rooms and experienced no problems with it.  Some hotels have week signals that drive me bonkers, but like I said, no issues with theres.  The room was very roomy and very clean.  My only complaint about the room was the skimpy amount of towel.  One washcloth and 2 towels for 2 adults.  We will definately be requesting extra towels when we return. This is by no means a top notch 5 star hotel, but for the cost of the room (76.00 p/nt) we found it to be an awesome value without giving up cleanliness and comfort.  The location is not bad either.  We made it to dinner in Dallas on a Saturday night in 15 minutes.  Not bad in my opinion. So definately check this place out when you are in the area....More</t>
+  </si>
+  <si>
+    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r140563480-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -1858,6 +2083,9 @@
 The clerk reviewed  and re-reviewed room records, found an unoccupied two-bed suite, and verified it had been cleaned before allowing us in. Although the process took about 20 minutes, we appreciated the effort, especially since it allowed us to stay here...Positives: Ultra-new; ultra-modern; great service and breakfastNegatives: Strange bath and closet configuration; isolatedIf you're looking for first-class lodging in the north Dallas area and don't mind traveling a bit out of the way, this is a hotel you should consider.It's an extremely nice, new property that is comfortable and stylish with a customer-oriented staff...and from the perspective of a non-business traveller...remote. The published address is President George W. Bush Turnpike, but the bulding really faces Shiloh Road. (I suppose the Turnpike address lends a certain cachet a mere "road" doesn't have...)If you (like us) prefer to avoid the turnpike, simply take U.S. 75 (Central Expressway) to the Renner Road exit and proceed east to Shiloh. The hotel is a short distance south of the Renner/Shiloh intersection.We overheard staffers say the hotel was overbooked during our visit Labor Day weekend. Our midnight check-in experience confirmed those rumors...I'd reserved a two bed suite to accommodate three adult family members. With two beds and the sofa, each would have a separate place to sleep. At check-in the clerk said we'd been assigned a single king room. That was not acceptable given the mix of our group. The clerk reviewed  and re-reviewed room records, found an unoccupied two-bed suite, and verified it had been cleaned before allowing us in. Although the process took about 20 minutes, we appreciated the effort, especially since it allowed us to stay here rather than elsewhere.Inside and out, this property is a great example of ultra-modern design. Straight lines prevail throughout, relieved by a few curves and accented by a variety of interesting patterns, bright colors, and unusual textures. The overall effect is both stunning and pleasing.Our room was beautiful, clean, comfortable, and well-stocked. The entry door opened into a compact sitting area complete with sofa, lamps, and a nook containing a microwave and mini-fridge. Wired and wireless internet were both available.A "master switch" similar to a traditional cardkey reader is used to activate electrical appliances in the room. This device is located next to the door. Simply insert and leave your key in the reader to turn on power for lamps and other items. Removing the key at departure turns off the electricity to key devices, reducing electrical usage.Sitting and sleeping areas are separated by a built-in desk. Four fluffy pillows were provided for both bed. Extra linens were available for the sofa bed. The "bathroom" was another innovative feature of our suite. The toilet and shower were in separate chambers, separated by a closet. Each chamber was accessed though the sleeping area; you couldn't pass directly from one to the other. The toilet chamber featured a small wash basin in the corner. The shower chamber contained a larger sink and vanity. No tub was provided.This configuration offers some advantages. For instance, it allows two people to use different facilities simultaneously without interfering with each other. Some drawbacks exist. In cases like ours, occupants are required to dress completely in order to move from one chamber to another.While they were visually impressive, the minimalist design caused other inconveniences. Space for toiletries, clean clothes, and towels is limited. Only one towel bar was provided...and that was on the shower door. The vanity had a small counter top; much of that was used by the sink. One small metal stud was available to hang clothing.Main breakfast courses changed daily during our stay, but always included scrambled eggs and some type of sausage. A wide variety of alternatives from cook-them-yourself waffles to cold cereal were also available for those who prefer lighter fare.In some ways, this hotel reminded us of frontier forts of the American West. Located away from restaurants, shopping, and other lodging, this SpringHill Suites stands as an outpost on a new frontier, where corporate campuses replace mountains, greenbelts serve as forests, and grasslands roll across vacant lots. It's an oasis in suburban desert, a good value, and is definitely a place we'd return if in the area again.More</t>
   </si>
   <si>
+    <t>aloflin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r137586291-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1874,6 +2102,9 @@
   </si>
   <si>
     <t>August 2012</t>
+  </si>
+  <si>
+    <t>Bill G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r136942113-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -1898,6 +2129,9 @@
 The basic room was attractive and functional. It had a small refrigerator and a microwave. There was a sitting area with a desk and a couple of small tables along with a couch. A glass partition separates that from a sleeping area. Rounding out the space was a small room with a toilet and tiny sink and then a larger bathroom with a shower and a another wash basin.
 Now for the weird stuff: The shower stall is slippery but has no grab bar. There is hardly any place to hang towels and even the hook which exists is poorly designed and doesn't hold much. The glass partition between the sleeping area and sitting area obviously lets light through -- it would be nice if it was opaque so a light could be on in one area without disturbing someone trying to sleep in the other. The chime on the elevator is incredibly loud and I could hear it in the room a third of the way down the hall with the door closed!
 Overall it's still very nice if you can learn...The room was clean and of pretty good quality (e.g. walls thicker than most). Decent internet, both wired and wireless. Breakfast hours are a reasonable 6 to 10 and the variety is good for the type of hotel. Did not use pool or whirlpool but it seemed nice. There is even a small bar in the lobby!The basic room was attractive and functional. It had a small refrigerator and a microwave. There was a sitting area with a desk and a couple of small tables along with a couch. A glass partition separates that from a sleeping area. Rounding out the space was a small room with a toilet and tiny sink and then a larger bathroom with a shower and a another wash basin.Now for the weird stuff: The shower stall is slippery but has no grab bar. There is hardly any place to hang towels and even the hook which exists is poorly designed and doesn't hold much. The glass partition between the sleeping area and sitting area obviously lets light through -- it would be nice if it was opaque so a light could be on in one area without disturbing someone trying to sleep in the other. The chime on the elevator is incredibly loud and I could hear it in the room a third of the way down the hall with the door closed!Overall it's still very nice if you can learn to accept or work around those very silly design flaws.More</t>
+  </si>
+  <si>
+    <t>Mahesh M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d2543181-r129823975-SpringHill_Suites_Dallas_Richardson_Plano-Richardson_Texas.html</t>
@@ -2420,43 +2654,47 @@
       <c r="A2" t="n">
         <v>61614</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177740</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2470,50 +2708,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>61614</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177741</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2531,50 +2773,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>61614</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>65247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2592,50 +2838,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>61614</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177742</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2653,56 +2903,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>61614</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177743</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2716,50 +2970,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>61614</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>5790</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2773,50 +3031,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>61614</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>43679</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2830,50 +3092,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>61614</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>98959</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2893,50 +3159,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>61614</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177744</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2954,56 +3224,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61614</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177745</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3017,50 +3291,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61614</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177746</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3078,50 +3356,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61614</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177747</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3135,50 +3417,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61614</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177748</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>134</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>123</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3198,50 +3484,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61614</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177749</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3257,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>61614</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177750</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3320,50 +3614,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>61614</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>82585</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3375,56 +3673,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>61614</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177751</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3436,56 +3738,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>61614</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>177752</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3503,56 +3809,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>61614</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>78937</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3568,56 +3878,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X20" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>61614</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177753</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3629,56 +3943,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X21" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>61614</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>15626</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3696,56 +4014,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>61614</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177754</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3763,56 +4085,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>61614</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>10648</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3830,56 +4156,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>61614</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177755</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3897,47 +4227,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>61614</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177756</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -3956,50 +4290,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>61614</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>2528</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4011,56 +4349,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="X27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>61614</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177757</v>
+      </c>
+      <c r="C28" t="s">
+        <v>253</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4076,56 +4418,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="X28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>61614</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177758</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4137,56 +4483,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="X29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>61614</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177759</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4204,56 +4554,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="X30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>61614</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177760</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4271,56 +4625,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>61614</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177761</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4332,56 +4690,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="X32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>61614</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177762</v>
+      </c>
+      <c r="C33" t="s">
+        <v>296</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4393,56 +4755,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="X33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>61614</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177763</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4458,56 +4824,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>61614</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177764</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4525,47 +4895,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="X35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>61614</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>135149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4582,56 +4956,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>61614</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177765</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4649,56 +5027,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>61614</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177766</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4710,56 +5092,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="X38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>61614</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>31946</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4775,56 +5161,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="X39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>61614</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177767</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4842,56 +5232,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="X40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="Y40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>61614</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177768</v>
+      </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4909,56 +5303,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="X41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="Y41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>61614</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>508</v>
+      </c>
+      <c r="C42" t="s">
+        <v>379</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4970,56 +5368,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="X42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="Y42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>61614</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>20575</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5037,56 +5439,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="X43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>61614</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>177769</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5098,56 +5504,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="X44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="Y44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>61614</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>98552</v>
+      </c>
+      <c r="C45" t="s">
+        <v>408</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="K45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="L45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5163,56 +5573,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="X45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="Y45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>61614</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>148033</v>
+      </c>
+      <c r="C46" t="s">
+        <v>418</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="J46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="K46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5230,56 +5644,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="X46" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>61614</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177770</v>
+      </c>
+      <c r="C47" t="s">
+        <v>426</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5301,47 +5719,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="X47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="Y47" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>61614</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>91052</v>
+      </c>
+      <c r="C48" t="s">
+        <v>436</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="J48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="K48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5358,56 +5780,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="X48" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="Y48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>61614</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C49" t="s">
+        <v>443</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="O49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5431,50 +5857,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>61614</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177771</v>
+      </c>
+      <c r="C50" t="s">
+        <v>449</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="J50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="K50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5496,56 +5926,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="X50" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="Y50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>61614</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177772</v>
+      </c>
+      <c r="C51" t="s">
+        <v>459</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="J51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="K51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="L51" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5567,56 +6001,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="X51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="Y51" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>61614</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>32523</v>
+      </c>
+      <c r="C52" t="s">
+        <v>468</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="J52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="K52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="L52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5638,56 +6076,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="X52" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="Y52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>61614</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>89172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>476</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="J53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="K53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="L53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="O53" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5709,56 +6151,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="X53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="Y53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>61614</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177773</v>
+      </c>
+      <c r="C54" t="s">
+        <v>485</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="J54" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="K54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="L54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5770,56 +6216,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="X54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="Y54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>61614</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177774</v>
+      </c>
+      <c r="C55" t="s">
+        <v>495</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="J55" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="K55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="L55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5841,56 +6291,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="X55" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="Y55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>61614</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177775</v>
+      </c>
+      <c r="C56" t="s">
+        <v>502</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="J56" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="K56" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="L56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="O56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5912,47 +6366,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="X56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="Y56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>61614</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177776</v>
+      </c>
+      <c r="C57" t="s">
+        <v>512</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="J57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="K57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="L57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5979,56 +6437,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="X57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="Y57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>61614</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>74568</v>
+      </c>
+      <c r="C58" t="s">
+        <v>521</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="J58" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="L58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6050,56 +6512,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="X58" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="Y58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>61614</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>2094</v>
+      </c>
+      <c r="C59" t="s">
+        <v>528</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="J59" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="K59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="L59" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6121,56 +6587,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="X59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="Y59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>61614</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>177777</v>
+      </c>
+      <c r="C60" t="s">
+        <v>537</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="J60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="K60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="L60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6192,56 +6662,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="X60" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="Y60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>61614</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>177778</v>
+      </c>
+      <c r="C61" t="s">
+        <v>546</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="J61" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="K61" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="L61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6253,56 +6727,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="X61" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="Y61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61614</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>10079</v>
+      </c>
+      <c r="C62" t="s">
+        <v>553</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="J62" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="K62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="L62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6324,56 +6802,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="X62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="Y62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61614</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177779</v>
+      </c>
+      <c r="C63" t="s">
+        <v>563</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="J63" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="K63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="L63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="O63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6395,56 +6877,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="X63" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="Y63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>61614</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177780</v>
+      </c>
+      <c r="C64" t="s">
+        <v>569</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="J64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="K64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="L64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="O64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6466,56 +6952,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="X64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="Y64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>61614</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175847</v>
+      </c>
+      <c r="C65" t="s">
+        <v>578</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="J65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="K65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="L65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6537,47 +7027,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="X65" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="Y65" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>61614</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177781</v>
+      </c>
+      <c r="C66" t="s">
+        <v>588</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="J66" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="K66" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="L66" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
@@ -6604,56 +7098,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="X66" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="Y66" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>61614</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177782</v>
+      </c>
+      <c r="C67" t="s">
+        <v>597</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="J67" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="K67" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="L67" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6675,56 +7173,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="X67" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="Y67" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>61614</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>126559</v>
+      </c>
+      <c r="C68" t="s">
+        <v>605</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="J68" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="K68" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="L68" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6748,50 +7250,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>61614</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>17359</v>
+      </c>
+      <c r="C69" t="s">
+        <v>613</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="J69" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="K69" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="L69" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6815,50 +7321,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>61614</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177783</v>
+      </c>
+      <c r="C70" t="s">
+        <v>620</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="J70" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="K70" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="L70" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6882,50 +7392,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>61614</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177784</v>
+      </c>
+      <c r="C71" t="s">
+        <v>626</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="J71" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="K71" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="L71" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6949,50 +7463,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>61614</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>45945</v>
+      </c>
+      <c r="C72" t="s">
+        <v>633</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="J72" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="K72" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="L72" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7016,50 +7534,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>61614</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177785</v>
+      </c>
+      <c r="C73" t="s">
+        <v>641</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="J73" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="K73" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="L73" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7083,50 +7605,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>61614</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177786</v>
+      </c>
+      <c r="C74" t="s">
+        <v>647</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="J74" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="K74" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="L74" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7150,50 +7676,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>61614</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177787</v>
+      </c>
+      <c r="C75" t="s">
+        <v>655</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="J75" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="K75" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="L75" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7217,50 +7747,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>61614</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177788</v>
+      </c>
+      <c r="C76" t="s">
+        <v>662</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="J76" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="K76" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="L76" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="O76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7284,50 +7818,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>61614</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177789</v>
+      </c>
+      <c r="C77" t="s">
+        <v>669</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="J77" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="K77" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="L77" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="O77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7351,50 +7889,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>61614</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>10306</v>
+      </c>
+      <c r="C78" t="s">
+        <v>676</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="J78" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="K78" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="L78" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7418,50 +7960,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>61614</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177790</v>
+      </c>
+      <c r="C79" t="s">
+        <v>683</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="J79" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="K79" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="L79" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7485,7 +8031,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
